--- a/Part2_TheGift/TheGiftScriptData.xlsx
+++ b/Part2_TheGift/TheGiftScriptData.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26519"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26330"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28560" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15520" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="342">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="343">
   <si>
     <t>Part. ID</t>
   </si>
@@ -27,9 +27,6 @@
     <t>28-4-1530-A-3</t>
   </si>
   <si>
-    <t>28-4-1530-B-7</t>
-  </si>
-  <si>
     <t>28-4-1610-A-2</t>
   </si>
   <si>
@@ -93,9 +90,6 @@
     <t>Talking Heads, This Must Be The Place</t>
   </si>
   <si>
-    <t>Johnny Cash, Folsom Prison Blues</t>
-  </si>
-  <si>
     <t>The Streets, Don't Mug Yourself</t>
   </si>
   <si>
@@ -114,9 +108,6 @@
     <t>Bob Marley, Three Little Birds</t>
   </si>
   <si>
-    <t>The Specials, A Message To You Rudy</t>
-  </si>
-  <si>
     <t>Spiritualized, Shine a Light</t>
   </si>
   <si>
@@ -276,15 +267,6 @@
     <t>Prince, 1999</t>
   </si>
   <si>
-    <t>Emmy the Great, Swimming Pool</t>
-  </si>
-  <si>
-    <t>Squeeze, Pulling Mussels (from the Shell)</t>
-  </si>
-  <si>
-    <t>Thunderbirds Are Go [theme I suppose]</t>
-  </si>
-  <si>
     <t>Public Service Broadcasting, Go!</t>
   </si>
   <si>
@@ -1045,6 +1027,27 @@
   </si>
   <si>
     <t>2841455A</t>
+  </si>
+  <si>
+    <t>2841530A</t>
+  </si>
+  <si>
+    <t>Emmy The Great - 01. Swimming Pool</t>
+  </si>
+  <si>
+    <t>Squeeze - 06. Pulling Mussels (From The Shell)</t>
+  </si>
+  <si>
+    <t>Busted - 16. Thunderbirds Are Go</t>
+  </si>
+  <si>
+    <t>David Bowie - 03. Let's Dance</t>
+  </si>
+  <si>
+    <t>Johnny Cash - 17. Folsom Prison Blues</t>
+  </si>
+  <si>
+    <t>The Specials - 02. A Message to You Rudy</t>
   </si>
 </sst>
 </file>
@@ -1231,7 +1234,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="197">
+  <cellStyleXfs count="213">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1429,8 +1432,24 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -1624,8 +1643,24 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="197">
+  <cellStyles count="213">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1724,6 +1759,14 @@
     <cellStyle name="Followed Hyperlink" xfId="192" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="194" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="196" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="198" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="200" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="202" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="204" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="206" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="208" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="210" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="212" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1822,6 +1865,14 @@
     <cellStyle name="Hyperlink" xfId="191" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="193" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="195" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="197" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="199" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="201" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="203" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="205" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="207" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="209" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="211" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2151,10 +2202,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BA28"/>
+  <dimension ref="A1:BZ28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" topLeftCell="V1" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
+      <selection activeCell="AN7" sqref="AN7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2165,172 +2216,257 @@
     <col min="9" max="11" width="13.6640625" customWidth="1"/>
     <col min="12" max="12" width="12.6640625" customWidth="1"/>
     <col min="14" max="14" width="12.33203125" customWidth="1"/>
-    <col min="21" max="21" width="12" customWidth="1"/>
-    <col min="28" max="28" width="13" customWidth="1"/>
-    <col min="33" max="33" width="12.6640625" customWidth="1"/>
-    <col min="35" max="35" width="12.6640625" customWidth="1"/>
-    <col min="40" max="40" width="12.6640625" customWidth="1"/>
-    <col min="42" max="42" width="12.1640625" customWidth="1"/>
-    <col min="47" max="47" width="12.6640625" customWidth="1"/>
+    <col min="19" max="20" width="12.83203125" style="67" customWidth="1"/>
+    <col min="21" max="23" width="13.6640625" style="67" customWidth="1"/>
+    <col min="26" max="26" width="12" customWidth="1"/>
+    <col min="31" max="32" width="12.83203125" style="70" customWidth="1"/>
+    <col min="33" max="35" width="13.6640625" style="70" customWidth="1"/>
+    <col min="38" max="38" width="13" customWidth="1"/>
+    <col min="43" max="44" width="12.83203125" style="73" customWidth="1"/>
+    <col min="45" max="47" width="13.6640625" style="73" customWidth="1"/>
+    <col min="48" max="48" width="12.6640625" customWidth="1"/>
+    <col min="50" max="50" width="12.6640625" customWidth="1"/>
+    <col min="55" max="56" width="12.83203125" customWidth="1"/>
+    <col min="57" max="59" width="13.6640625" customWidth="1"/>
+    <col min="60" max="60" width="12.6640625" customWidth="1"/>
+    <col min="62" max="62" width="12.1640625" customWidth="1"/>
+    <col min="67" max="68" width="12.83203125" style="74" customWidth="1"/>
+    <col min="69" max="71" width="13.6640625" style="74" customWidth="1"/>
+    <col min="72" max="72" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:53">
+    <row r="1" spans="1:78">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>331</v>
+      </c>
+      <c r="H1" s="14" t="s">
+        <v>327</v>
+      </c>
+      <c r="I1" s="14" t="s">
+        <v>328</v>
+      </c>
+      <c r="J1" s="14" t="s">
+        <v>329</v>
+      </c>
+      <c r="K1" s="14" t="s">
+        <v>330</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>298</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>302</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="S1" s="11" t="s">
+        <v>331</v>
+      </c>
+      <c r="T1" s="11" t="s">
+        <v>327</v>
+      </c>
+      <c r="U1" s="11" t="s">
+        <v>328</v>
+      </c>
+      <c r="V1" s="11" t="s">
+        <v>329</v>
+      </c>
+      <c r="W1" s="11" t="s">
+        <v>330</v>
+      </c>
+      <c r="X1" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="Y1" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z1" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="AA1" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="AB1" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="AC1" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="AD1" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="AE1" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="AF1" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="AG1" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="AH1" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="AI1" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="AJ1" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="AK1" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="AL1" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="AM1" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="AN1" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="AO1" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="AP1" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="AQ1" s="9" t="s">
+        <v>331</v>
+      </c>
+      <c r="AR1" s="9" t="s">
+        <v>327</v>
+      </c>
+      <c r="AS1" s="9" t="s">
+        <v>328</v>
+      </c>
+      <c r="AT1" s="9" t="s">
+        <v>329</v>
+      </c>
+      <c r="AU1" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="AV1" s="9" t="s">
+        <v>298</v>
+      </c>
+      <c r="AW1" s="9" t="s">
+        <v>302</v>
+      </c>
+      <c r="AX1" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="AY1" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="AZ1" s="11" t="s">
         <v>161</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="BA1" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="BB1" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="BC1" s="14" t="s">
+        <v>331</v>
+      </c>
+      <c r="BD1" s="14" t="s">
+        <v>327</v>
+      </c>
+      <c r="BE1" s="14" t="s">
+        <v>328</v>
+      </c>
+      <c r="BF1" s="14" t="s">
+        <v>329</v>
+      </c>
+      <c r="BG1" s="14" t="s">
+        <v>330</v>
+      </c>
+      <c r="BH1" s="11" t="s">
+        <v>298</v>
+      </c>
+      <c r="BI1" s="11" t="s">
+        <v>302</v>
+      </c>
+      <c r="BJ1" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="BK1" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="BL1" s="13" t="s">
         <v>162</v>
       </c>
-      <c r="D1" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="E1" s="14" t="s">
-        <v>160</v>
-      </c>
-      <c r="F1" s="14" t="s">
-        <v>162</v>
-      </c>
-      <c r="G1" s="14" t="s">
-        <v>337</v>
-      </c>
-      <c r="H1" s="14" t="s">
+      <c r="BM1" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="BN1" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="BO1" s="13" t="s">
+        <v>331</v>
+      </c>
+      <c r="BP1" s="13" t="s">
+        <v>327</v>
+      </c>
+      <c r="BQ1" s="13" t="s">
+        <v>328</v>
+      </c>
+      <c r="BR1" s="13" t="s">
+        <v>329</v>
+      </c>
+      <c r="BS1" s="13" t="s">
+        <v>330</v>
+      </c>
+      <c r="BT1" s="13" t="s">
+        <v>298</v>
+      </c>
+      <c r="BU1" s="13" t="s">
+        <v>302</v>
+      </c>
+      <c r="BV1" s="1"/>
+    </row>
+    <row r="2" spans="1:78" ht="75">
+      <c r="A2" s="16" t="s">
         <v>333</v>
       </c>
-      <c r="I1" s="14" t="s">
-        <v>334</v>
-      </c>
-      <c r="J1" s="14" t="s">
-        <v>335</v>
-      </c>
-      <c r="K1" s="14" t="s">
-        <v>336</v>
-      </c>
-      <c r="L1" s="9" t="s">
-        <v>304</v>
-      </c>
-      <c r="M1" s="9" t="s">
-        <v>308</v>
-      </c>
-      <c r="N1" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="O1" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="P1" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="Q1" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="R1" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="S1" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="T1" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="U1" s="7" t="s">
+      <c r="B2" s="14" t="s">
         <v>170</v>
-      </c>
-      <c r="V1" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="W1" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="X1" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="Y1" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="Z1" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="AA1" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="AB1" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="AC1" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="AD1" s="9" t="s">
-        <v>166</v>
-      </c>
-      <c r="AE1" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="AF1" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="AG1" s="9" t="s">
-        <v>304</v>
-      </c>
-      <c r="AH1" s="9" t="s">
-        <v>308</v>
-      </c>
-      <c r="AI1" s="11" t="s">
-        <v>172</v>
-      </c>
-      <c r="AJ1" s="11" t="s">
-        <v>162</v>
-      </c>
-      <c r="AK1" s="11" t="s">
-        <v>167</v>
-      </c>
-      <c r="AL1" s="11" t="s">
-        <v>160</v>
-      </c>
-      <c r="AM1" s="11" t="s">
-        <v>162</v>
-      </c>
-      <c r="AN1" s="11" t="s">
-        <v>304</v>
-      </c>
-      <c r="AO1" s="11" t="s">
-        <v>308</v>
-      </c>
-      <c r="AP1" s="13" t="s">
-        <v>173</v>
-      </c>
-      <c r="AQ1" s="13" t="s">
-        <v>162</v>
-      </c>
-      <c r="AR1" s="13" t="s">
-        <v>168</v>
-      </c>
-      <c r="AS1" s="13" t="s">
-        <v>160</v>
-      </c>
-      <c r="AT1" s="13" t="s">
-        <v>162</v>
-      </c>
-      <c r="AU1" s="13" t="s">
-        <v>304</v>
-      </c>
-      <c r="AV1" s="13" t="s">
-        <v>308</v>
-      </c>
-      <c r="AW1" s="1"/>
-    </row>
-    <row r="2" spans="1:53" ht="75">
-      <c r="A2" s="16" t="s">
-        <v>339</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>176</v>
       </c>
       <c r="C2" s="14"/>
       <c r="D2" s="15" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="E2" s="15">
         <v>0</v>
@@ -2347,14 +2483,14 @@
         <v>12.4</v>
       </c>
       <c r="M2" s="10" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="O2" s="5"/>
       <c r="P2" s="6" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="Q2" s="6">
         <v>0</v>
@@ -2362,88 +2498,113 @@
       <c r="R2" s="6">
         <v>283.01799999999997</v>
       </c>
-      <c r="S2" s="6">
+      <c r="S2" s="12"/>
+      <c r="T2" s="12"/>
+      <c r="U2" s="12"/>
+      <c r="V2" s="12"/>
+      <c r="W2" s="12"/>
+      <c r="X2" s="6">
         <v>49</v>
       </c>
-      <c r="T2" s="6"/>
-      <c r="U2" s="64" t="s">
+      <c r="Y2" s="6"/>
+      <c r="Z2" s="64" t="s">
+        <v>175</v>
+      </c>
+      <c r="AA2" s="7"/>
+      <c r="AB2" s="8" t="s">
+        <v>301</v>
+      </c>
+      <c r="AC2" s="8">
+        <v>0</v>
+      </c>
+      <c r="AD2" s="8">
+        <v>243</v>
+      </c>
+      <c r="AE2" s="8"/>
+      <c r="AF2" s="8"/>
+      <c r="AG2" s="8"/>
+      <c r="AH2" s="8"/>
+      <c r="AI2" s="8"/>
+      <c r="AJ2" s="8">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="AK2" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="AL2" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="AM2" s="9"/>
+      <c r="AN2" s="10" t="s">
+        <v>304</v>
+      </c>
+      <c r="AO2" s="10">
+        <v>0</v>
+      </c>
+      <c r="AP2" s="10">
+        <v>363.6</v>
+      </c>
+      <c r="AQ2" s="10"/>
+      <c r="AR2" s="10"/>
+      <c r="AS2" s="10"/>
+      <c r="AT2" s="10"/>
+      <c r="AU2" s="10"/>
+      <c r="AV2" s="10">
+        <v>25</v>
+      </c>
+      <c r="AW2" s="10" t="s">
+        <v>303</v>
+      </c>
+      <c r="AX2" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="AY2" s="11"/>
+      <c r="AZ2" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="BA2" s="12"/>
+      <c r="BB2" s="12"/>
+      <c r="BC2" s="15"/>
+      <c r="BD2" s="15"/>
+      <c r="BE2" s="15"/>
+      <c r="BF2" s="15"/>
+      <c r="BG2" s="15"/>
+      <c r="BH2" s="12"/>
+      <c r="BI2" s="12"/>
+      <c r="BJ2" s="13" t="s">
         <v>181</v>
       </c>
-      <c r="V2" s="7"/>
-      <c r="W2" s="8" t="s">
+      <c r="BK2" s="13"/>
+      <c r="BL2" s="4" t="s">
         <v>307</v>
       </c>
-      <c r="X2" s="8">
+      <c r="BM2" s="4">
         <v>0</v>
       </c>
-      <c r="Y2" s="8">
-        <v>243</v>
-      </c>
-      <c r="Z2" s="8">
-        <v>16.600000000000001</v>
-      </c>
-      <c r="AA2" s="8" t="s">
-        <v>306</v>
-      </c>
-      <c r="AB2" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="AC2" s="9"/>
-      <c r="AD2" s="10" t="s">
-        <v>310</v>
-      </c>
-      <c r="AE2" s="10">
-        <v>0</v>
-      </c>
-      <c r="AF2" s="10">
-        <v>363.6</v>
-      </c>
-      <c r="AG2" s="10">
-        <v>25</v>
-      </c>
-      <c r="AH2" s="10" t="s">
-        <v>309</v>
-      </c>
-      <c r="AI2" s="11" t="s">
-        <v>185</v>
-      </c>
-      <c r="AJ2" s="11"/>
-      <c r="AK2" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="AL2" s="12"/>
-      <c r="AM2" s="12"/>
-      <c r="AN2" s="12"/>
-      <c r="AO2" s="12"/>
-      <c r="AP2" s="13" t="s">
-        <v>187</v>
-      </c>
-      <c r="AQ2" s="13"/>
-      <c r="AR2" s="4" t="s">
-        <v>313</v>
-      </c>
-      <c r="AS2" s="4">
-        <v>0</v>
-      </c>
-      <c r="AT2" s="4">
+      <c r="BN2" s="4">
         <v>163.92400000000001</v>
       </c>
-      <c r="AU2" s="4">
+      <c r="BO2" s="4"/>
+      <c r="BP2" s="4"/>
+      <c r="BQ2" s="4"/>
+      <c r="BR2" s="4"/>
+      <c r="BS2" s="4"/>
+      <c r="BT2" s="4">
         <v>16.399999999999999</v>
       </c>
-      <c r="AV2" s="4"/>
-      <c r="AW2" s="1"/>
+      <c r="BU2" s="4"/>
+      <c r="BV2" s="1"/>
     </row>
-    <row r="3" spans="1:53" ht="91" thickBot="1">
+    <row r="3" spans="1:78" ht="91" thickBot="1">
       <c r="A3" s="17" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="C3" s="18"/>
       <c r="D3" s="19" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="E3" s="19">
         <v>0</v>
@@ -2460,14 +2621,14 @@
         <v>33</v>
       </c>
       <c r="M3" s="25" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="N3" s="20" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="O3" s="20"/>
       <c r="P3" s="21" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="Q3" s="21">
         <v>0</v>
@@ -2475,84 +2636,109 @@
       <c r="R3" s="21">
         <v>328.46100000000001</v>
       </c>
-      <c r="S3" s="21">
+      <c r="S3" s="27"/>
+      <c r="T3" s="27"/>
+      <c r="U3" s="27"/>
+      <c r="V3" s="27"/>
+      <c r="W3" s="27"/>
+      <c r="X3" s="21">
         <v>55</v>
       </c>
-      <c r="T3" s="21" t="s">
-        <v>316</v>
-      </c>
-      <c r="U3" s="65" t="s">
+      <c r="Y3" s="21" t="s">
+        <v>310</v>
+      </c>
+      <c r="Z3" s="65" t="s">
+        <v>176</v>
+      </c>
+      <c r="AA3" s="22"/>
+      <c r="AB3" s="23" t="s">
+        <v>312</v>
+      </c>
+      <c r="AC3" s="23">
+        <v>0</v>
+      </c>
+      <c r="AD3" s="23">
+        <v>333.64699999999999</v>
+      </c>
+      <c r="AE3" s="23"/>
+      <c r="AF3" s="23"/>
+      <c r="AG3" s="23"/>
+      <c r="AH3" s="23"/>
+      <c r="AI3" s="23"/>
+      <c r="AJ3" s="23">
+        <v>21.8</v>
+      </c>
+      <c r="AK3" s="23"/>
+      <c r="AL3" s="24" t="s">
+        <v>178</v>
+      </c>
+      <c r="AM3" s="24"/>
+      <c r="AN3" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="AO3" s="25">
+        <v>16.678000000000001</v>
+      </c>
+      <c r="AP3" s="25">
+        <v>339.46100000000001</v>
+      </c>
+      <c r="AQ3" s="25"/>
+      <c r="AR3" s="25"/>
+      <c r="AS3" s="25"/>
+      <c r="AT3" s="25"/>
+      <c r="AU3" s="25"/>
+      <c r="AV3" s="25">
+        <v>24.443000000000001</v>
+      </c>
+      <c r="AW3" s="25" t="s">
+        <v>313</v>
+      </c>
+      <c r="AX3" s="26" t="s">
+        <v>180</v>
+      </c>
+      <c r="AY3" s="26"/>
+      <c r="AZ3" s="27" t="s">
+        <v>132</v>
+      </c>
+      <c r="BA3" s="27"/>
+      <c r="BB3" s="27"/>
+      <c r="BC3" s="19"/>
+      <c r="BD3" s="19"/>
+      <c r="BE3" s="19"/>
+      <c r="BF3" s="19"/>
+      <c r="BG3" s="19"/>
+      <c r="BH3" s="27"/>
+      <c r="BI3" s="27"/>
+      <c r="BJ3" s="28" t="s">
         <v>182</v>
       </c>
-      <c r="V3" s="22"/>
-      <c r="W3" s="23" t="s">
-        <v>318</v>
-      </c>
-      <c r="X3" s="23">
-        <v>0</v>
-      </c>
-      <c r="Y3" s="23">
-        <v>333.64699999999999</v>
-      </c>
-      <c r="Z3" s="23">
-        <v>21.8</v>
-      </c>
-      <c r="AA3" s="23"/>
-      <c r="AB3" s="24" t="s">
-        <v>184</v>
-      </c>
-      <c r="AC3" s="24"/>
-      <c r="AD3" s="25" t="s">
-        <v>320</v>
-      </c>
-      <c r="AE3" s="25">
-        <v>16.678000000000001</v>
-      </c>
-      <c r="AF3" s="25">
-        <v>339.46100000000001</v>
-      </c>
-      <c r="AG3" s="25">
-        <v>24.443000000000001</v>
-      </c>
-      <c r="AH3" s="25" t="s">
-        <v>319</v>
-      </c>
-      <c r="AI3" s="26" t="s">
-        <v>186</v>
-      </c>
-      <c r="AJ3" s="26"/>
-      <c r="AK3" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="AL3" s="27"/>
-      <c r="AM3" s="27"/>
-      <c r="AN3" s="27"/>
-      <c r="AO3" s="27"/>
-      <c r="AP3" s="28" t="s">
-        <v>188</v>
-      </c>
-      <c r="AQ3" s="28"/>
-      <c r="AR3" s="29" t="s">
-        <v>46</v>
-      </c>
-      <c r="AS3" s="29"/>
-      <c r="AT3" s="29"/>
-      <c r="AU3" s="29"/>
-      <c r="AV3" s="29" t="s">
-        <v>321</v>
-      </c>
-      <c r="AW3" s="1"/>
+      <c r="BK3" s="28"/>
+      <c r="BL3" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="BM3" s="29"/>
+      <c r="BN3" s="29"/>
+      <c r="BO3" s="29"/>
+      <c r="BP3" s="29"/>
+      <c r="BQ3" s="29"/>
+      <c r="BR3" s="29"/>
+      <c r="BS3" s="29"/>
+      <c r="BT3" s="29"/>
+      <c r="BU3" s="29" t="s">
+        <v>315</v>
+      </c>
+      <c r="BV3" s="1"/>
     </row>
-    <row r="4" spans="1:53" ht="91" thickTop="1">
+    <row r="4" spans="1:78" ht="91" thickTop="1">
       <c r="A4" s="33" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="B4" s="34" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="C4" s="34"/>
       <c r="D4" s="35" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="E4" s="35">
         <v>0</v>
@@ -2570,11 +2756,11 @@
       </c>
       <c r="M4" s="41"/>
       <c r="N4" s="36" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="O4" s="36"/>
       <c r="P4" s="37" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="Q4" s="37">
         <v>0</v>
@@ -2582,90 +2768,115 @@
       <c r="R4" s="37">
         <v>211.708</v>
       </c>
-      <c r="S4" s="37">
+      <c r="S4" s="43"/>
+      <c r="T4" s="43"/>
+      <c r="U4" s="43"/>
+      <c r="V4" s="43"/>
+      <c r="W4" s="43"/>
+      <c r="X4" s="37">
         <v>12.5</v>
       </c>
-      <c r="T4" s="37" t="s">
-        <v>324</v>
-      </c>
-      <c r="U4" s="38" t="s">
-        <v>190</v>
-      </c>
-      <c r="V4" s="38"/>
-      <c r="W4" s="66" t="s">
-        <v>79</v>
-      </c>
-      <c r="X4" s="39">
+      <c r="Y4" s="37" t="s">
+        <v>318</v>
+      </c>
+      <c r="Z4" s="38" t="s">
+        <v>184</v>
+      </c>
+      <c r="AA4" s="38"/>
+      <c r="AB4" s="66" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC4" s="39">
         <v>0</v>
       </c>
-      <c r="Y4" s="39">
+      <c r="AD4" s="39">
         <v>291.82799999999997</v>
       </c>
-      <c r="Z4" s="39">
+      <c r="AE4" s="39"/>
+      <c r="AF4" s="39"/>
+      <c r="AG4" s="39"/>
+      <c r="AH4" s="39"/>
+      <c r="AI4" s="39"/>
+      <c r="AJ4" s="39">
         <v>26.5</v>
       </c>
-      <c r="AA4" s="39" t="s">
-        <v>326</v>
-      </c>
-      <c r="AB4" s="40" t="s">
-        <v>191</v>
-      </c>
-      <c r="AC4" s="40"/>
-      <c r="AD4" s="41" t="s">
-        <v>327</v>
-      </c>
-      <c r="AE4" s="41">
+      <c r="AK4" s="39" t="s">
+        <v>320</v>
+      </c>
+      <c r="AL4" s="40" t="s">
+        <v>185</v>
+      </c>
+      <c r="AM4" s="40"/>
+      <c r="AN4" s="41" t="s">
+        <v>321</v>
+      </c>
+      <c r="AO4" s="41">
         <v>0</v>
       </c>
-      <c r="AF4" s="41">
+      <c r="AP4" s="41">
         <v>158.23599999999999</v>
       </c>
-      <c r="AG4" s="41">
+      <c r="AQ4" s="41"/>
+      <c r="AR4" s="41"/>
+      <c r="AS4" s="41"/>
+      <c r="AT4" s="41"/>
+      <c r="AU4" s="41"/>
+      <c r="AV4" s="41">
         <v>20.75</v>
       </c>
-      <c r="AH4" s="41" t="s">
-        <v>323</v>
-      </c>
-      <c r="AI4" s="42" t="s">
-        <v>192</v>
-      </c>
-      <c r="AJ4" s="42"/>
-      <c r="AK4" s="66" t="s">
-        <v>79</v>
-      </c>
-      <c r="AL4" s="43"/>
-      <c r="AM4" s="43"/>
-      <c r="AN4" s="43"/>
-      <c r="AO4" s="43"/>
-      <c r="AP4" s="44" t="s">
-        <v>193</v>
-      </c>
-      <c r="AQ4" s="44"/>
-      <c r="AR4" s="45" t="s">
-        <v>328</v>
-      </c>
-      <c r="AS4" s="45">
+      <c r="AW4" s="41" t="s">
+        <v>317</v>
+      </c>
+      <c r="AX4" s="42" t="s">
+        <v>186</v>
+      </c>
+      <c r="AY4" s="42"/>
+      <c r="AZ4" s="66" t="s">
+        <v>76</v>
+      </c>
+      <c r="BA4" s="43"/>
+      <c r="BB4" s="43"/>
+      <c r="BC4" s="35"/>
+      <c r="BD4" s="35"/>
+      <c r="BE4" s="35"/>
+      <c r="BF4" s="35"/>
+      <c r="BG4" s="35"/>
+      <c r="BH4" s="43"/>
+      <c r="BI4" s="43"/>
+      <c r="BJ4" s="44" t="s">
+        <v>187</v>
+      </c>
+      <c r="BK4" s="44"/>
+      <c r="BL4" s="45" t="s">
+        <v>322</v>
+      </c>
+      <c r="BM4" s="45">
         <v>0</v>
       </c>
-      <c r="AT4" s="45">
+      <c r="BN4" s="45">
         <v>261.27600000000001</v>
       </c>
-      <c r="AU4" s="45">
+      <c r="BO4" s="45"/>
+      <c r="BP4" s="45"/>
+      <c r="BQ4" s="45"/>
+      <c r="BR4" s="45"/>
+      <c r="BS4" s="45"/>
+      <c r="BT4" s="45">
         <v>25</v>
       </c>
-      <c r="AV4" s="45"/>
-      <c r="AW4" s="1"/>
+      <c r="BU4" s="45"/>
+      <c r="BV4" s="1"/>
     </row>
-    <row r="5" spans="1:53" ht="136" thickBot="1">
+    <row r="5" spans="1:78" ht="136" thickBot="1">
       <c r="A5" s="46" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="B5" s="47" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="C5" s="47"/>
       <c r="D5" s="48" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E5" s="48"/>
       <c r="F5" s="48"/>
@@ -2677,70 +2888,95 @@
       <c r="L5" s="54"/>
       <c r="M5" s="54"/>
       <c r="N5" s="49" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="O5" s="49"/>
       <c r="P5" s="50" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="Q5" s="50"/>
       <c r="R5" s="50"/>
-      <c r="S5" s="50"/>
-      <c r="T5" s="50"/>
-      <c r="U5" s="51" t="s">
+      <c r="S5" s="56"/>
+      <c r="T5" s="56"/>
+      <c r="U5" s="56"/>
+      <c r="V5" s="56"/>
+      <c r="W5" s="56"/>
+      <c r="X5" s="50"/>
+      <c r="Y5" s="50"/>
+      <c r="Z5" s="51" t="s">
+        <v>176</v>
+      </c>
+      <c r="AA5" s="51"/>
+      <c r="AB5" s="52" t="s">
+        <v>78</v>
+      </c>
+      <c r="AC5" s="52"/>
+      <c r="AD5" s="52"/>
+      <c r="AE5" s="52"/>
+      <c r="AF5" s="52"/>
+      <c r="AG5" s="52"/>
+      <c r="AH5" s="52"/>
+      <c r="AI5" s="52"/>
+      <c r="AJ5" s="52"/>
+      <c r="AK5" s="52"/>
+      <c r="AL5" s="53" t="s">
+        <v>178</v>
+      </c>
+      <c r="AM5" s="53"/>
+      <c r="AN5" s="54" t="s">
+        <v>80</v>
+      </c>
+      <c r="AO5" s="54"/>
+      <c r="AP5" s="54"/>
+      <c r="AQ5" s="54"/>
+      <c r="AR5" s="54"/>
+      <c r="AS5" s="54"/>
+      <c r="AT5" s="54"/>
+      <c r="AU5" s="54"/>
+      <c r="AV5" s="54"/>
+      <c r="AW5" s="54"/>
+      <c r="AX5" s="55" t="s">
+        <v>180</v>
+      </c>
+      <c r="AY5" s="55"/>
+      <c r="AZ5" s="56"/>
+      <c r="BA5" s="56"/>
+      <c r="BB5" s="56"/>
+      <c r="BC5" s="48"/>
+      <c r="BD5" s="48"/>
+      <c r="BE5" s="48"/>
+      <c r="BF5" s="48"/>
+      <c r="BG5" s="48"/>
+      <c r="BH5" s="56"/>
+      <c r="BI5" s="56"/>
+      <c r="BJ5" s="57" t="s">
         <v>182</v>
       </c>
-      <c r="V5" s="51"/>
-      <c r="W5" s="52" t="s">
-        <v>81</v>
-      </c>
-      <c r="X5" s="52"/>
-      <c r="Y5" s="52"/>
-      <c r="Z5" s="52"/>
-      <c r="AA5" s="52"/>
-      <c r="AB5" s="53" t="s">
-        <v>184</v>
-      </c>
-      <c r="AC5" s="53"/>
-      <c r="AD5" s="54" t="s">
-        <v>83</v>
-      </c>
-      <c r="AE5" s="54"/>
-      <c r="AF5" s="54"/>
-      <c r="AG5" s="54"/>
-      <c r="AH5" s="54"/>
-      <c r="AI5" s="55" t="s">
-        <v>186</v>
-      </c>
-      <c r="AJ5" s="55"/>
-      <c r="AK5" s="56"/>
-      <c r="AL5" s="56"/>
-      <c r="AM5" s="56"/>
-      <c r="AN5" s="56"/>
-      <c r="AO5" s="56"/>
-      <c r="AP5" s="57" t="s">
-        <v>188</v>
-      </c>
-      <c r="AQ5" s="57"/>
-      <c r="AR5" s="58" t="s">
-        <v>139</v>
-      </c>
-      <c r="AS5" s="58"/>
-      <c r="AT5" s="58"/>
-      <c r="AU5" s="58"/>
-      <c r="AV5" s="58"/>
-      <c r="AW5" s="1"/>
+      <c r="BK5" s="57"/>
+      <c r="BL5" s="58" t="s">
+        <v>133</v>
+      </c>
+      <c r="BM5" s="58"/>
+      <c r="BN5" s="58"/>
+      <c r="BO5" s="58"/>
+      <c r="BP5" s="58"/>
+      <c r="BQ5" s="58"/>
+      <c r="BR5" s="58"/>
+      <c r="BS5" s="58"/>
+      <c r="BT5" s="58"/>
+      <c r="BU5" s="58"/>
+      <c r="BV5" s="1"/>
     </row>
-    <row r="6" spans="1:53" ht="76" thickTop="1">
+    <row r="6" spans="1:78" ht="76" thickTop="1">
       <c r="A6" s="30" t="s">
         <v>1</v>
       </c>
       <c r="B6" s="30" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="C6" s="30"/>
       <c r="D6" s="62" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E6" s="62"/>
       <c r="F6" s="62"/>
@@ -2752,157 +2988,277 @@
       <c r="L6" s="62"/>
       <c r="M6" s="62"/>
       <c r="N6" s="30" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="O6" s="30"/>
       <c r="P6" s="62" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="Q6" s="62"/>
       <c r="R6" s="62"/>
-      <c r="S6" s="62"/>
-      <c r="T6" s="62"/>
-      <c r="U6" s="30" t="s">
-        <v>200</v>
-      </c>
-      <c r="V6" s="30"/>
-      <c r="W6" s="62" t="s">
-        <v>38</v>
-      </c>
+      <c r="S6" s="31"/>
+      <c r="T6" s="31"/>
+      <c r="U6" s="31"/>
+      <c r="V6" s="31"/>
+      <c r="W6" s="31"/>
       <c r="X6" s="62"/>
       <c r="Y6" s="62"/>
-      <c r="Z6" s="62"/>
-      <c r="AA6" s="62"/>
-      <c r="AB6" s="30" t="s">
-        <v>198</v>
-      </c>
-      <c r="AC6" s="30"/>
-      <c r="AD6" s="62" t="s">
-        <v>47</v>
-      </c>
-      <c r="AE6" s="62"/>
-      <c r="AF6" s="62"/>
-      <c r="AG6" s="62"/>
-      <c r="AH6" s="62"/>
-      <c r="AI6" s="30" t="s">
-        <v>196</v>
-      </c>
-      <c r="AJ6" s="30"/>
-      <c r="AK6" s="62" t="s">
-        <v>30</v>
-      </c>
-      <c r="AL6" s="62"/>
-      <c r="AM6" s="62"/>
-      <c r="AN6" s="31"/>
-      <c r="AO6" s="31"/>
-      <c r="AP6" s="30" t="s">
+      <c r="Z6" s="30" t="s">
         <v>194</v>
       </c>
-      <c r="AQ6" s="30"/>
-      <c r="AR6" s="62" t="s">
-        <v>23</v>
-      </c>
-      <c r="AS6" s="62"/>
-      <c r="AT6" s="62"/>
-      <c r="AU6" s="32"/>
-      <c r="AV6" s="32"/>
-      <c r="AW6" s="3"/>
-      <c r="AX6" s="3"/>
-      <c r="AY6" s="3"/>
-      <c r="AZ6" s="3"/>
-      <c r="BA6" s="3"/>
+      <c r="AA6" s="30"/>
+      <c r="AB6" s="62" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC6" s="62"/>
+      <c r="AD6" s="62"/>
+      <c r="AE6" s="68"/>
+      <c r="AF6" s="68"/>
+      <c r="AG6" s="68"/>
+      <c r="AH6" s="68"/>
+      <c r="AI6" s="68"/>
+      <c r="AJ6" s="62"/>
+      <c r="AK6" s="62"/>
+      <c r="AL6" s="30" t="s">
+        <v>192</v>
+      </c>
+      <c r="AM6" s="30"/>
+      <c r="AN6" s="62" t="s">
+        <v>44</v>
+      </c>
+      <c r="AO6" s="62"/>
+      <c r="AP6" s="62"/>
+      <c r="AQ6" s="71"/>
+      <c r="AR6" s="71"/>
+      <c r="AS6" s="71"/>
+      <c r="AT6" s="71"/>
+      <c r="AU6" s="71"/>
+      <c r="AV6" s="62"/>
+      <c r="AW6" s="62"/>
+      <c r="AX6" s="30" t="s">
+        <v>190</v>
+      </c>
+      <c r="AY6" s="30"/>
+      <c r="AZ6" s="62" t="s">
+        <v>28</v>
+      </c>
+      <c r="BA6" s="62"/>
+      <c r="BB6" s="62"/>
+      <c r="BC6" s="62"/>
+      <c r="BD6" s="62"/>
+      <c r="BE6" s="62"/>
+      <c r="BF6" s="62"/>
+      <c r="BG6" s="62"/>
+      <c r="BH6" s="31"/>
+      <c r="BI6" s="31"/>
+      <c r="BJ6" s="30" t="s">
+        <v>188</v>
+      </c>
+      <c r="BK6" s="30"/>
+      <c r="BL6" s="62" t="s">
+        <v>22</v>
+      </c>
+      <c r="BM6" s="62"/>
+      <c r="BN6" s="62"/>
+      <c r="BO6" s="32"/>
+      <c r="BP6" s="32"/>
+      <c r="BQ6" s="32"/>
+      <c r="BR6" s="32"/>
+      <c r="BS6" s="32"/>
+      <c r="BT6" s="32"/>
+      <c r="BU6" s="32"/>
+      <c r="BV6" s="3"/>
+      <c r="BW6" s="3"/>
+      <c r="BX6" s="3"/>
+      <c r="BY6" s="3"/>
+      <c r="BZ6" s="3"/>
     </row>
-    <row r="7" spans="1:53" ht="76" thickBot="1">
+    <row r="7" spans="1:78" ht="76" thickBot="1">
       <c r="A7" s="59" t="s">
-        <v>2</v>
+        <v>336</v>
       </c>
       <c r="B7" s="59" t="s">
-        <v>175</v>
-      </c>
-      <c r="C7" s="59"/>
+        <v>169</v>
+      </c>
+      <c r="C7" s="59">
+        <v>5.41</v>
+      </c>
       <c r="D7" s="63" t="s">
-        <v>85</v>
+        <v>337</v>
       </c>
       <c r="E7" s="63"/>
-      <c r="F7" s="63"/>
-      <c r="G7" s="63"/>
-      <c r="H7" s="63"/>
-      <c r="I7" s="63"/>
+      <c r="F7" s="63">
+        <v>246.5</v>
+      </c>
+      <c r="G7" s="63">
+        <v>245</v>
+      </c>
+      <c r="H7" s="63">
+        <v>1</v>
+      </c>
+      <c r="I7" s="63">
+        <v>0.7</v>
+      </c>
       <c r="J7" s="63"/>
       <c r="K7" s="63"/>
       <c r="L7" s="63"/>
       <c r="M7" s="63"/>
       <c r="N7" s="59" t="s">
-        <v>203</v>
-      </c>
-      <c r="O7" s="59"/>
+        <v>197</v>
+      </c>
+      <c r="O7" s="59">
+        <v>4.26</v>
+      </c>
       <c r="P7" s="63" t="s">
-        <v>86</v>
+        <v>338</v>
       </c>
       <c r="Q7" s="63"/>
-      <c r="R7" s="63"/>
-      <c r="S7" s="63"/>
-      <c r="T7" s="63"/>
-      <c r="U7" s="59" t="s">
-        <v>201</v>
-      </c>
-      <c r="V7" s="59"/>
-      <c r="W7" s="63" t="s">
-        <v>87</v>
+      <c r="R7" s="63">
+        <v>236</v>
+      </c>
+      <c r="S7" s="60">
+        <v>232</v>
+      </c>
+      <c r="T7" s="60">
+        <v>0.85</v>
+      </c>
+      <c r="U7" s="60">
+        <v>0.45</v>
+      </c>
+      <c r="V7" s="60">
+        <v>118.10599999999999</v>
+      </c>
+      <c r="W7" s="60">
+        <v>6.6840000000000002</v>
       </c>
       <c r="X7" s="63"/>
       <c r="Y7" s="63"/>
-      <c r="Z7" s="63"/>
-      <c r="AA7" s="63"/>
-      <c r="AB7" s="59" t="s">
-        <v>199</v>
-      </c>
-      <c r="AC7" s="59"/>
-      <c r="AD7" s="63" t="s">
-        <v>48</v>
-      </c>
-      <c r="AE7" s="63"/>
-      <c r="AF7" s="63"/>
-      <c r="AG7" s="63"/>
-      <c r="AH7" s="63"/>
-      <c r="AI7" s="59" t="s">
-        <v>197</v>
-      </c>
-      <c r="AJ7" s="59"/>
-      <c r="AK7" s="63" t="s">
-        <v>24</v>
-      </c>
-      <c r="AL7" s="63"/>
-      <c r="AM7" s="63"/>
-      <c r="AN7" s="60"/>
-      <c r="AO7" s="60"/>
-      <c r="AP7" s="59" t="s">
+      <c r="Z7" s="59" t="s">
         <v>195</v>
       </c>
-      <c r="AQ7" s="59"/>
-      <c r="AR7" s="63" t="s">
-        <v>31</v>
-      </c>
-      <c r="AS7" s="63"/>
-      <c r="AT7" s="63"/>
-      <c r="AU7" s="61"/>
-      <c r="AV7" s="61"/>
-      <c r="AW7" s="3"/>
-      <c r="AX7" s="3"/>
-      <c r="AY7" s="3"/>
-      <c r="AZ7" s="3"/>
-      <c r="BA7" s="3"/>
+      <c r="AA7" s="59">
+        <v>6.21</v>
+      </c>
+      <c r="AB7" s="63" t="s">
+        <v>339</v>
+      </c>
+      <c r="AC7" s="63"/>
+      <c r="AD7" s="63">
+        <v>189.18799999999999</v>
+      </c>
+      <c r="AE7" s="69">
+        <v>186.5</v>
+      </c>
+      <c r="AF7" s="69">
+        <v>0.6</v>
+      </c>
+      <c r="AG7" s="69">
+        <v>0.3</v>
+      </c>
+      <c r="AH7" s="69"/>
+      <c r="AI7" s="69"/>
+      <c r="AJ7" s="63"/>
+      <c r="AK7" s="63"/>
+      <c r="AL7" s="59" t="s">
+        <v>193</v>
+      </c>
+      <c r="AM7" s="59">
+        <v>5.875</v>
+      </c>
+      <c r="AN7" s="63" t="s">
+        <v>340</v>
+      </c>
+      <c r="AO7" s="63"/>
+      <c r="AP7" s="63">
+        <v>457.19499999999999</v>
+      </c>
+      <c r="AQ7" s="72">
+        <v>454</v>
+      </c>
+      <c r="AR7" s="72">
+        <v>0.7</v>
+      </c>
+      <c r="AS7" s="72">
+        <v>0.4</v>
+      </c>
+      <c r="AT7" s="72"/>
+      <c r="AU7" s="72"/>
+      <c r="AV7" s="63"/>
+      <c r="AW7" s="63"/>
+      <c r="AX7" s="59" t="s">
+        <v>191</v>
+      </c>
+      <c r="AY7" s="59">
+        <v>15.81</v>
+      </c>
+      <c r="AZ7" s="63" t="s">
+        <v>341</v>
+      </c>
+      <c r="BA7" s="63">
+        <v>1.2270000000000001</v>
+      </c>
+      <c r="BB7" s="63">
+        <v>164.7</v>
+      </c>
+      <c r="BC7" s="63">
+        <v>163.5</v>
+      </c>
+      <c r="BD7" s="63">
+        <v>1</v>
+      </c>
+      <c r="BE7" s="63">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="BF7" s="63">
+        <v>109.89700000000001</v>
+      </c>
+      <c r="BG7" s="63">
+        <v>18.038</v>
+      </c>
+      <c r="BH7" s="60"/>
+      <c r="BI7" s="60"/>
+      <c r="BJ7" s="59" t="s">
+        <v>189</v>
+      </c>
+      <c r="BK7" s="59">
+        <v>4.1050000000000004</v>
+      </c>
+      <c r="BL7" s="63" t="s">
+        <v>342</v>
+      </c>
+      <c r="BM7" s="63"/>
+      <c r="BN7" s="63">
+        <v>171.5</v>
+      </c>
+      <c r="BO7" s="61">
+        <v>168</v>
+      </c>
+      <c r="BP7" s="61">
+        <v>1</v>
+      </c>
+      <c r="BQ7" s="61">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="BR7" s="61"/>
+      <c r="BS7" s="61"/>
+      <c r="BT7" s="61"/>
+      <c r="BU7" s="61"/>
+      <c r="BV7" s="3"/>
+      <c r="BW7" s="3"/>
+      <c r="BX7" s="3"/>
+      <c r="BY7" s="3"/>
+      <c r="BZ7" s="3"/>
     </row>
-    <row r="8" spans="1:53" ht="91" thickTop="1">
+    <row r="8" spans="1:78" ht="91" thickTop="1">
       <c r="A8" s="33" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B8" s="34" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="C8" s="34"/>
       <c r="D8" s="35" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="E8" s="35"/>
       <c r="F8" s="35"/>
@@ -2914,72 +3270,97 @@
       <c r="L8" s="41"/>
       <c r="M8" s="41"/>
       <c r="N8" s="36" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="O8" s="36"/>
       <c r="P8" s="37" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="Q8" s="37"/>
       <c r="R8" s="37"/>
-      <c r="S8" s="37"/>
-      <c r="T8" s="37"/>
-      <c r="U8" s="38" t="s">
+      <c r="S8" s="43"/>
+      <c r="T8" s="43"/>
+      <c r="U8" s="43"/>
+      <c r="V8" s="43"/>
+      <c r="W8" s="43"/>
+      <c r="X8" s="37"/>
+      <c r="Y8" s="37"/>
+      <c r="Z8" s="38" t="s">
+        <v>202</v>
+      </c>
+      <c r="AA8" s="38"/>
+      <c r="AB8" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC8" s="39"/>
+      <c r="AD8" s="39"/>
+      <c r="AE8" s="39"/>
+      <c r="AF8" s="39"/>
+      <c r="AG8" s="39"/>
+      <c r="AH8" s="39"/>
+      <c r="AI8" s="39"/>
+      <c r="AJ8" s="39"/>
+      <c r="AK8" s="39"/>
+      <c r="AL8" s="40" t="s">
+        <v>204</v>
+      </c>
+      <c r="AM8" s="40"/>
+      <c r="AN8" s="41" t="s">
+        <v>142</v>
+      </c>
+      <c r="AO8" s="41"/>
+      <c r="AP8" s="41"/>
+      <c r="AQ8" s="41"/>
+      <c r="AR8" s="41"/>
+      <c r="AS8" s="41"/>
+      <c r="AT8" s="41"/>
+      <c r="AU8" s="41"/>
+      <c r="AV8" s="41"/>
+      <c r="AW8" s="41"/>
+      <c r="AX8" s="42" t="s">
+        <v>206</v>
+      </c>
+      <c r="AY8" s="42"/>
+      <c r="AZ8" s="43" t="s">
+        <v>143</v>
+      </c>
+      <c r="BA8" s="43"/>
+      <c r="BB8" s="43"/>
+      <c r="BC8" s="35"/>
+      <c r="BD8" s="35"/>
+      <c r="BE8" s="35"/>
+      <c r="BF8" s="35"/>
+      <c r="BG8" s="35"/>
+      <c r="BH8" s="43"/>
+      <c r="BI8" s="43"/>
+      <c r="BJ8" s="44" t="s">
         <v>208</v>
       </c>
-      <c r="V8" s="38"/>
-      <c r="W8" s="39" t="s">
-        <v>89</v>
-      </c>
-      <c r="X8" s="39"/>
-      <c r="Y8" s="39"/>
-      <c r="Z8" s="39"/>
-      <c r="AA8" s="39"/>
-      <c r="AB8" s="40" t="s">
-        <v>210</v>
-      </c>
-      <c r="AC8" s="40"/>
-      <c r="AD8" s="41" t="s">
-        <v>148</v>
-      </c>
-      <c r="AE8" s="41"/>
-      <c r="AF8" s="41"/>
-      <c r="AG8" s="41"/>
-      <c r="AH8" s="41"/>
-      <c r="AI8" s="42" t="s">
-        <v>212</v>
-      </c>
-      <c r="AJ8" s="42"/>
-      <c r="AK8" s="43" t="s">
-        <v>149</v>
-      </c>
-      <c r="AL8" s="43"/>
-      <c r="AM8" s="43"/>
-      <c r="AN8" s="43"/>
-      <c r="AO8" s="43"/>
-      <c r="AP8" s="44" t="s">
-        <v>214</v>
-      </c>
-      <c r="AQ8" s="44"/>
-      <c r="AR8" s="45" t="s">
-        <v>150</v>
-      </c>
-      <c r="AS8" s="45"/>
-      <c r="AT8" s="45"/>
-      <c r="AU8" s="45"/>
-      <c r="AV8" s="45"/>
-      <c r="AW8" s="1"/>
+      <c r="BK8" s="44"/>
+      <c r="BL8" s="45" t="s">
+        <v>144</v>
+      </c>
+      <c r="BM8" s="45"/>
+      <c r="BN8" s="45"/>
+      <c r="BO8" s="45"/>
+      <c r="BP8" s="45"/>
+      <c r="BQ8" s="45"/>
+      <c r="BR8" s="45"/>
+      <c r="BS8" s="45"/>
+      <c r="BT8" s="45"/>
+      <c r="BU8" s="45"/>
+      <c r="BV8" s="1"/>
     </row>
-    <row r="9" spans="1:53" ht="61" thickBot="1">
+    <row r="9" spans="1:78" ht="61" thickBot="1">
       <c r="A9" s="46" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B9" s="47" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="C9" s="47"/>
       <c r="D9" s="48" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="E9" s="48"/>
       <c r="F9" s="48"/>
@@ -2991,72 +3372,97 @@
       <c r="L9" s="54"/>
       <c r="M9" s="54"/>
       <c r="N9" s="49" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="O9" s="49"/>
       <c r="P9" s="50" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="Q9" s="50"/>
       <c r="R9" s="50"/>
-      <c r="S9" s="50"/>
-      <c r="T9" s="50"/>
-      <c r="U9" s="51" t="s">
+      <c r="S9" s="56"/>
+      <c r="T9" s="56"/>
+      <c r="U9" s="56"/>
+      <c r="V9" s="56"/>
+      <c r="W9" s="56"/>
+      <c r="X9" s="50"/>
+      <c r="Y9" s="50"/>
+      <c r="Z9" s="51" t="s">
+        <v>203</v>
+      </c>
+      <c r="AA9" s="51"/>
+      <c r="AB9" s="52" t="s">
+        <v>86</v>
+      </c>
+      <c r="AC9" s="52"/>
+      <c r="AD9" s="52"/>
+      <c r="AE9" s="52"/>
+      <c r="AF9" s="52"/>
+      <c r="AG9" s="52"/>
+      <c r="AH9" s="52"/>
+      <c r="AI9" s="52"/>
+      <c r="AJ9" s="52"/>
+      <c r="AK9" s="52"/>
+      <c r="AL9" s="53" t="s">
+        <v>205</v>
+      </c>
+      <c r="AM9" s="53"/>
+      <c r="AN9" s="54" t="s">
+        <v>138</v>
+      </c>
+      <c r="AO9" s="54"/>
+      <c r="AP9" s="54"/>
+      <c r="AQ9" s="54"/>
+      <c r="AR9" s="54"/>
+      <c r="AS9" s="54"/>
+      <c r="AT9" s="54"/>
+      <c r="AU9" s="54"/>
+      <c r="AV9" s="54"/>
+      <c r="AW9" s="54"/>
+      <c r="AX9" s="55" t="s">
+        <v>207</v>
+      </c>
+      <c r="AY9" s="55"/>
+      <c r="AZ9" s="56" t="s">
+        <v>139</v>
+      </c>
+      <c r="BA9" s="56"/>
+      <c r="BB9" s="56"/>
+      <c r="BC9" s="48"/>
+      <c r="BD9" s="48"/>
+      <c r="BE9" s="48"/>
+      <c r="BF9" s="48"/>
+      <c r="BG9" s="48"/>
+      <c r="BH9" s="56"/>
+      <c r="BI9" s="56"/>
+      <c r="BJ9" s="57" t="s">
         <v>209</v>
       </c>
-      <c r="V9" s="51"/>
-      <c r="W9" s="52" t="s">
-        <v>92</v>
-      </c>
-      <c r="X9" s="52"/>
-      <c r="Y9" s="52"/>
-      <c r="Z9" s="52"/>
-      <c r="AA9" s="52"/>
-      <c r="AB9" s="53" t="s">
-        <v>211</v>
-      </c>
-      <c r="AC9" s="53"/>
-      <c r="AD9" s="54" t="s">
-        <v>144</v>
-      </c>
-      <c r="AE9" s="54"/>
-      <c r="AF9" s="54"/>
-      <c r="AG9" s="54"/>
-      <c r="AH9" s="54"/>
-      <c r="AI9" s="55" t="s">
-        <v>213</v>
-      </c>
-      <c r="AJ9" s="55"/>
-      <c r="AK9" s="56" t="s">
-        <v>145</v>
-      </c>
-      <c r="AL9" s="56"/>
-      <c r="AM9" s="56"/>
-      <c r="AN9" s="56"/>
-      <c r="AO9" s="56"/>
-      <c r="AP9" s="57" t="s">
-        <v>215</v>
-      </c>
-      <c r="AQ9" s="57"/>
-      <c r="AR9" s="58" t="s">
-        <v>146</v>
-      </c>
-      <c r="AS9" s="58"/>
-      <c r="AT9" s="58"/>
-      <c r="AU9" s="58"/>
-      <c r="AV9" s="58"/>
-      <c r="AW9" s="1"/>
+      <c r="BK9" s="57"/>
+      <c r="BL9" s="58" t="s">
+        <v>140</v>
+      </c>
+      <c r="BM9" s="58"/>
+      <c r="BN9" s="58"/>
+      <c r="BO9" s="58"/>
+      <c r="BP9" s="58"/>
+      <c r="BQ9" s="58"/>
+      <c r="BR9" s="58"/>
+      <c r="BS9" s="58"/>
+      <c r="BT9" s="58"/>
+      <c r="BU9" s="58"/>
+      <c r="BV9" s="1"/>
     </row>
-    <row r="10" spans="1:53" ht="76" thickTop="1">
+    <row r="10" spans="1:78" ht="76" thickTop="1">
       <c r="A10" s="33" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B10" s="34" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="C10" s="34"/>
       <c r="D10" s="35" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="E10" s="35">
         <v>3.1429999999999998</v>
@@ -3071,14 +3477,14 @@
       <c r="K10" s="35"/>
       <c r="L10" s="41"/>
       <c r="M10" s="41" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="N10" s="36" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="O10" s="36"/>
       <c r="P10" s="37" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="Q10" s="37">
         <v>0</v>
@@ -3086,68 +3492,93 @@
       <c r="R10" s="37">
         <v>236.86699999999999</v>
       </c>
-      <c r="S10" s="37">
+      <c r="S10" s="43"/>
+      <c r="T10" s="43"/>
+      <c r="U10" s="43"/>
+      <c r="V10" s="43"/>
+      <c r="W10" s="43"/>
+      <c r="X10" s="37">
         <v>5.45</v>
       </c>
-      <c r="T10" s="37" t="s">
-        <v>331</v>
-      </c>
-      <c r="U10" s="38" t="s">
+      <c r="Y10" s="37" t="s">
+        <v>325</v>
+      </c>
+      <c r="Z10" s="38" t="s">
+        <v>214</v>
+      </c>
+      <c r="AA10" s="38"/>
+      <c r="AB10" s="39" t="s">
+        <v>87</v>
+      </c>
+      <c r="AC10" s="39"/>
+      <c r="AD10" s="39"/>
+      <c r="AE10" s="39"/>
+      <c r="AF10" s="39"/>
+      <c r="AG10" s="39"/>
+      <c r="AH10" s="39"/>
+      <c r="AI10" s="39"/>
+      <c r="AJ10" s="39"/>
+      <c r="AK10" s="39"/>
+      <c r="AL10" s="40" t="s">
+        <v>216</v>
+      </c>
+      <c r="AM10" s="40"/>
+      <c r="AN10" s="41" t="s">
+        <v>46</v>
+      </c>
+      <c r="AO10" s="41"/>
+      <c r="AP10" s="41"/>
+      <c r="AQ10" s="41"/>
+      <c r="AR10" s="41"/>
+      <c r="AS10" s="41"/>
+      <c r="AT10" s="41"/>
+      <c r="AU10" s="41"/>
+      <c r="AV10" s="41"/>
+      <c r="AW10" s="41"/>
+      <c r="AX10" s="42" t="s">
+        <v>218</v>
+      </c>
+      <c r="AY10" s="42"/>
+      <c r="AZ10" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="BA10" s="43"/>
+      <c r="BB10" s="43"/>
+      <c r="BC10" s="35"/>
+      <c r="BD10" s="35"/>
+      <c r="BE10" s="35"/>
+      <c r="BF10" s="35"/>
+      <c r="BG10" s="35"/>
+      <c r="BH10" s="43"/>
+      <c r="BI10" s="43"/>
+      <c r="BJ10" s="44" t="s">
         <v>220</v>
       </c>
-      <c r="V10" s="38"/>
-      <c r="W10" s="39" t="s">
-        <v>93</v>
-      </c>
-      <c r="X10" s="39"/>
-      <c r="Y10" s="39"/>
-      <c r="Z10" s="39"/>
-      <c r="AA10" s="39"/>
-      <c r="AB10" s="40" t="s">
-        <v>222</v>
-      </c>
-      <c r="AC10" s="40"/>
-      <c r="AD10" s="41" t="s">
-        <v>49</v>
-      </c>
-      <c r="AE10" s="41"/>
-      <c r="AF10" s="41"/>
-      <c r="AG10" s="41"/>
-      <c r="AH10" s="41"/>
-      <c r="AI10" s="42" t="s">
-        <v>224</v>
-      </c>
-      <c r="AJ10" s="42"/>
-      <c r="AK10" s="43" t="s">
-        <v>30</v>
-      </c>
-      <c r="AL10" s="43"/>
-      <c r="AM10" s="43"/>
-      <c r="AN10" s="43"/>
-      <c r="AO10" s="43"/>
-      <c r="AP10" s="44" t="s">
-        <v>226</v>
-      </c>
-      <c r="AQ10" s="44"/>
-      <c r="AR10" s="45" t="s">
-        <v>25</v>
-      </c>
-      <c r="AS10" s="45"/>
-      <c r="AT10" s="45"/>
-      <c r="AU10" s="45"/>
-      <c r="AV10" s="45"/>
-      <c r="AW10" s="1"/>
+      <c r="BK10" s="44"/>
+      <c r="BL10" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="BM10" s="45"/>
+      <c r="BN10" s="45"/>
+      <c r="BO10" s="45"/>
+      <c r="BP10" s="45"/>
+      <c r="BQ10" s="45"/>
+      <c r="BR10" s="45"/>
+      <c r="BS10" s="45"/>
+      <c r="BT10" s="45"/>
+      <c r="BU10" s="45"/>
+      <c r="BV10" s="1"/>
     </row>
-    <row r="11" spans="1:53" ht="241" thickBot="1">
+    <row r="11" spans="1:78" ht="241" thickBot="1">
       <c r="A11" s="46" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B11" s="47" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="C11" s="47"/>
       <c r="D11" s="48" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="E11" s="48"/>
       <c r="F11" s="48"/>
@@ -3159,72 +3590,97 @@
       <c r="L11" s="54"/>
       <c r="M11" s="54"/>
       <c r="N11" s="49" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="O11" s="49"/>
       <c r="P11" s="50" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="Q11" s="50"/>
       <c r="R11" s="50"/>
-      <c r="S11" s="50"/>
-      <c r="T11" s="50"/>
-      <c r="U11" s="51" t="s">
+      <c r="S11" s="56"/>
+      <c r="T11" s="56"/>
+      <c r="U11" s="56"/>
+      <c r="V11" s="56"/>
+      <c r="W11" s="56"/>
+      <c r="X11" s="50"/>
+      <c r="Y11" s="50"/>
+      <c r="Z11" s="51" t="s">
+        <v>215</v>
+      </c>
+      <c r="AA11" s="51"/>
+      <c r="AB11" s="52" t="s">
+        <v>112</v>
+      </c>
+      <c r="AC11" s="52"/>
+      <c r="AD11" s="52"/>
+      <c r="AE11" s="52"/>
+      <c r="AF11" s="52"/>
+      <c r="AG11" s="52"/>
+      <c r="AH11" s="52"/>
+      <c r="AI11" s="52"/>
+      <c r="AJ11" s="52"/>
+      <c r="AK11" s="52"/>
+      <c r="AL11" s="53" t="s">
+        <v>217</v>
+      </c>
+      <c r="AM11" s="53"/>
+      <c r="AN11" s="54" t="s">
+        <v>47</v>
+      </c>
+      <c r="AO11" s="54"/>
+      <c r="AP11" s="54"/>
+      <c r="AQ11" s="54"/>
+      <c r="AR11" s="54"/>
+      <c r="AS11" s="54"/>
+      <c r="AT11" s="54"/>
+      <c r="AU11" s="54"/>
+      <c r="AV11" s="54"/>
+      <c r="AW11" s="54"/>
+      <c r="AX11" s="55" t="s">
+        <v>219</v>
+      </c>
+      <c r="AY11" s="55"/>
+      <c r="AZ11" s="56" t="s">
+        <v>24</v>
+      </c>
+      <c r="BA11" s="56"/>
+      <c r="BB11" s="56"/>
+      <c r="BC11" s="48"/>
+      <c r="BD11" s="48"/>
+      <c r="BE11" s="48"/>
+      <c r="BF11" s="48"/>
+      <c r="BG11" s="48"/>
+      <c r="BH11" s="56"/>
+      <c r="BI11" s="56"/>
+      <c r="BJ11" s="57" t="s">
         <v>221</v>
       </c>
-      <c r="V11" s="51"/>
-      <c r="W11" s="52" t="s">
-        <v>118</v>
-      </c>
-      <c r="X11" s="52"/>
-      <c r="Y11" s="52"/>
-      <c r="Z11" s="52"/>
-      <c r="AA11" s="52"/>
-      <c r="AB11" s="53" t="s">
-        <v>223</v>
-      </c>
-      <c r="AC11" s="53"/>
-      <c r="AD11" s="54" t="s">
-        <v>50</v>
-      </c>
-      <c r="AE11" s="54"/>
-      <c r="AF11" s="54"/>
-      <c r="AG11" s="54"/>
-      <c r="AH11" s="54"/>
-      <c r="AI11" s="55" t="s">
-        <v>225</v>
-      </c>
-      <c r="AJ11" s="55"/>
-      <c r="AK11" s="56" t="s">
-        <v>26</v>
-      </c>
-      <c r="AL11" s="56"/>
-      <c r="AM11" s="56"/>
-      <c r="AN11" s="56"/>
-      <c r="AO11" s="56"/>
-      <c r="AP11" s="57" t="s">
-        <v>227</v>
-      </c>
-      <c r="AQ11" s="57"/>
-      <c r="AR11" s="58" t="s">
-        <v>32</v>
-      </c>
-      <c r="AS11" s="58"/>
-      <c r="AT11" s="58"/>
-      <c r="AU11" s="58"/>
-      <c r="AV11" s="58"/>
-      <c r="AW11" s="1"/>
+      <c r="BK11" s="57"/>
+      <c r="BL11" s="58" t="s">
+        <v>29</v>
+      </c>
+      <c r="BM11" s="58"/>
+      <c r="BN11" s="58"/>
+      <c r="BO11" s="58"/>
+      <c r="BP11" s="58"/>
+      <c r="BQ11" s="58"/>
+      <c r="BR11" s="58"/>
+      <c r="BS11" s="58"/>
+      <c r="BT11" s="58"/>
+      <c r="BU11" s="58"/>
+      <c r="BV11" s="1"/>
     </row>
-    <row r="12" spans="1:53" ht="76" thickTop="1">
+    <row r="12" spans="1:78" ht="76" thickTop="1">
       <c r="A12" s="33" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B12" s="34" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="C12" s="34"/>
       <c r="D12" s="35" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="E12" s="35"/>
       <c r="F12" s="35"/>
@@ -3236,72 +3692,97 @@
       <c r="L12" s="41"/>
       <c r="M12" s="41"/>
       <c r="N12" s="36" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="O12" s="36"/>
       <c r="P12" s="37" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="Q12" s="37"/>
       <c r="R12" s="37"/>
-      <c r="S12" s="37"/>
-      <c r="T12" s="37"/>
-      <c r="U12" s="38" t="s">
-        <v>228</v>
-      </c>
-      <c r="V12" s="38"/>
-      <c r="W12" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="X12" s="39"/>
-      <c r="Y12" s="39"/>
-      <c r="Z12" s="39"/>
-      <c r="AA12" s="39"/>
-      <c r="AB12" s="40" t="s">
-        <v>228</v>
-      </c>
-      <c r="AC12" s="40"/>
-      <c r="AD12" s="41" t="s">
-        <v>51</v>
-      </c>
-      <c r="AE12" s="41"/>
-      <c r="AF12" s="41"/>
-      <c r="AG12" s="41"/>
-      <c r="AH12" s="41"/>
-      <c r="AI12" s="42" t="s">
-        <v>228</v>
-      </c>
-      <c r="AJ12" s="42"/>
-      <c r="AK12" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="AL12" s="43"/>
-      <c r="AM12" s="43"/>
-      <c r="AN12" s="43"/>
-      <c r="AO12" s="43"/>
-      <c r="AP12" s="44" t="s">
-        <v>228</v>
-      </c>
-      <c r="AQ12" s="44"/>
-      <c r="AR12" s="45" t="s">
-        <v>52</v>
-      </c>
-      <c r="AS12" s="45"/>
-      <c r="AT12" s="45"/>
-      <c r="AU12" s="45"/>
-      <c r="AV12" s="45"/>
-      <c r="AW12" s="1"/>
+      <c r="S12" s="43"/>
+      <c r="T12" s="43"/>
+      <c r="U12" s="43"/>
+      <c r="V12" s="43"/>
+      <c r="W12" s="43"/>
+      <c r="X12" s="37"/>
+      <c r="Y12" s="37"/>
+      <c r="Z12" s="38" t="s">
+        <v>222</v>
+      </c>
+      <c r="AA12" s="38"/>
+      <c r="AB12" s="39" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC12" s="39"/>
+      <c r="AD12" s="39"/>
+      <c r="AE12" s="39"/>
+      <c r="AF12" s="39"/>
+      <c r="AG12" s="39"/>
+      <c r="AH12" s="39"/>
+      <c r="AI12" s="39"/>
+      <c r="AJ12" s="39"/>
+      <c r="AK12" s="39"/>
+      <c r="AL12" s="40" t="s">
+        <v>222</v>
+      </c>
+      <c r="AM12" s="40"/>
+      <c r="AN12" s="41" t="s">
+        <v>48</v>
+      </c>
+      <c r="AO12" s="41"/>
+      <c r="AP12" s="41"/>
+      <c r="AQ12" s="41"/>
+      <c r="AR12" s="41"/>
+      <c r="AS12" s="41"/>
+      <c r="AT12" s="41"/>
+      <c r="AU12" s="41"/>
+      <c r="AV12" s="41"/>
+      <c r="AW12" s="41"/>
+      <c r="AX12" s="42" t="s">
+        <v>222</v>
+      </c>
+      <c r="AY12" s="42"/>
+      <c r="AZ12" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="BA12" s="43"/>
+      <c r="BB12" s="43"/>
+      <c r="BC12" s="35"/>
+      <c r="BD12" s="35"/>
+      <c r="BE12" s="35"/>
+      <c r="BF12" s="35"/>
+      <c r="BG12" s="35"/>
+      <c r="BH12" s="43"/>
+      <c r="BI12" s="43"/>
+      <c r="BJ12" s="44" t="s">
+        <v>222</v>
+      </c>
+      <c r="BK12" s="44"/>
+      <c r="BL12" s="45" t="s">
+        <v>49</v>
+      </c>
+      <c r="BM12" s="45"/>
+      <c r="BN12" s="45"/>
+      <c r="BO12" s="45"/>
+      <c r="BP12" s="45"/>
+      <c r="BQ12" s="45"/>
+      <c r="BR12" s="45"/>
+      <c r="BS12" s="45"/>
+      <c r="BT12" s="45"/>
+      <c r="BU12" s="45"/>
+      <c r="BV12" s="1"/>
     </row>
-    <row r="13" spans="1:53" ht="76" thickBot="1">
+    <row r="13" spans="1:78" ht="76" thickBot="1">
       <c r="A13" s="46" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B13" s="47" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="C13" s="47"/>
       <c r="D13" s="48" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="E13" s="48"/>
       <c r="F13" s="48"/>
@@ -3313,72 +3794,97 @@
       <c r="L13" s="54"/>
       <c r="M13" s="54"/>
       <c r="N13" s="49" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="O13" s="49"/>
       <c r="P13" s="50" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="Q13" s="50"/>
       <c r="R13" s="50"/>
-      <c r="S13" s="50"/>
-      <c r="T13" s="50"/>
-      <c r="U13" s="51" t="s">
-        <v>229</v>
-      </c>
-      <c r="V13" s="51"/>
-      <c r="W13" s="52" t="s">
-        <v>42</v>
-      </c>
-      <c r="X13" s="52"/>
-      <c r="Y13" s="52"/>
-      <c r="Z13" s="52"/>
-      <c r="AA13" s="52"/>
-      <c r="AB13" s="53" t="s">
-        <v>229</v>
-      </c>
-      <c r="AC13" s="53"/>
-      <c r="AD13" s="54" t="s">
-        <v>53</v>
-      </c>
-      <c r="AE13" s="54"/>
-      <c r="AF13" s="54"/>
-      <c r="AG13" s="54"/>
-      <c r="AH13" s="54"/>
-      <c r="AI13" s="55" t="s">
-        <v>229</v>
-      </c>
-      <c r="AJ13" s="55"/>
-      <c r="AK13" s="56" t="s">
-        <v>151</v>
-      </c>
-      <c r="AL13" s="56"/>
-      <c r="AM13" s="56"/>
-      <c r="AN13" s="56"/>
-      <c r="AO13" s="56"/>
-      <c r="AP13" s="57" t="s">
-        <v>229</v>
-      </c>
-      <c r="AQ13" s="57"/>
-      <c r="AR13" s="58" t="s">
-        <v>120</v>
-      </c>
-      <c r="AS13" s="58"/>
-      <c r="AT13" s="58"/>
-      <c r="AU13" s="58"/>
-      <c r="AV13" s="58"/>
-      <c r="AW13" s="1"/>
+      <c r="S13" s="56"/>
+      <c r="T13" s="56"/>
+      <c r="U13" s="56"/>
+      <c r="V13" s="56"/>
+      <c r="W13" s="56"/>
+      <c r="X13" s="50"/>
+      <c r="Y13" s="50"/>
+      <c r="Z13" s="51" t="s">
+        <v>223</v>
+      </c>
+      <c r="AA13" s="51"/>
+      <c r="AB13" s="52" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC13" s="52"/>
+      <c r="AD13" s="52"/>
+      <c r="AE13" s="52"/>
+      <c r="AF13" s="52"/>
+      <c r="AG13" s="52"/>
+      <c r="AH13" s="52"/>
+      <c r="AI13" s="52"/>
+      <c r="AJ13" s="52"/>
+      <c r="AK13" s="52"/>
+      <c r="AL13" s="53" t="s">
+        <v>223</v>
+      </c>
+      <c r="AM13" s="53"/>
+      <c r="AN13" s="54" t="s">
+        <v>50</v>
+      </c>
+      <c r="AO13" s="54"/>
+      <c r="AP13" s="54"/>
+      <c r="AQ13" s="54"/>
+      <c r="AR13" s="54"/>
+      <c r="AS13" s="54"/>
+      <c r="AT13" s="54"/>
+      <c r="AU13" s="54"/>
+      <c r="AV13" s="54"/>
+      <c r="AW13" s="54"/>
+      <c r="AX13" s="55" t="s">
+        <v>223</v>
+      </c>
+      <c r="AY13" s="55"/>
+      <c r="AZ13" s="56" t="s">
+        <v>145</v>
+      </c>
+      <c r="BA13" s="56"/>
+      <c r="BB13" s="56"/>
+      <c r="BC13" s="48"/>
+      <c r="BD13" s="48"/>
+      <c r="BE13" s="48"/>
+      <c r="BF13" s="48"/>
+      <c r="BG13" s="48"/>
+      <c r="BH13" s="56"/>
+      <c r="BI13" s="56"/>
+      <c r="BJ13" s="57" t="s">
+        <v>223</v>
+      </c>
+      <c r="BK13" s="57"/>
+      <c r="BL13" s="58" t="s">
+        <v>114</v>
+      </c>
+      <c r="BM13" s="58"/>
+      <c r="BN13" s="58"/>
+      <c r="BO13" s="58"/>
+      <c r="BP13" s="58"/>
+      <c r="BQ13" s="58"/>
+      <c r="BR13" s="58"/>
+      <c r="BS13" s="58"/>
+      <c r="BT13" s="58"/>
+      <c r="BU13" s="58"/>
+      <c r="BV13" s="1"/>
     </row>
-    <row r="14" spans="1:53" ht="241" thickTop="1">
+    <row r="14" spans="1:78" ht="241" thickTop="1">
       <c r="A14" s="33" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B14" s="34" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="C14" s="34"/>
       <c r="D14" s="35" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="E14" s="35"/>
       <c r="F14" s="35"/>
@@ -3390,74 +3896,99 @@
       <c r="L14" s="41"/>
       <c r="M14" s="41"/>
       <c r="N14" s="36" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="O14" s="36"/>
       <c r="P14" s="37" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="Q14" s="37"/>
       <c r="R14" s="37"/>
-      <c r="S14" s="37"/>
-      <c r="T14" s="37"/>
-      <c r="U14" s="38" t="s">
+      <c r="S14" s="43"/>
+      <c r="T14" s="43"/>
+      <c r="U14" s="43"/>
+      <c r="V14" s="43"/>
+      <c r="W14" s="43"/>
+      <c r="X14" s="37"/>
+      <c r="Y14" s="37"/>
+      <c r="Z14" s="38" t="s">
+        <v>228</v>
+      </c>
+      <c r="AA14" s="38"/>
+      <c r="AB14" s="39" t="s">
+        <v>120</v>
+      </c>
+      <c r="AC14" s="39"/>
+      <c r="AD14" s="39"/>
+      <c r="AE14" s="39"/>
+      <c r="AF14" s="39"/>
+      <c r="AG14" s="39"/>
+      <c r="AH14" s="39"/>
+      <c r="AI14" s="39"/>
+      <c r="AJ14" s="39"/>
+      <c r="AK14" s="39"/>
+      <c r="AL14" s="40" t="s">
+        <v>230</v>
+      </c>
+      <c r="AM14" s="40"/>
+      <c r="AN14" s="41" t="s">
+        <v>51</v>
+      </c>
+      <c r="AO14" s="41"/>
+      <c r="AP14" s="41"/>
+      <c r="AQ14" s="41"/>
+      <c r="AR14" s="41"/>
+      <c r="AS14" s="41"/>
+      <c r="AT14" s="41"/>
+      <c r="AU14" s="41"/>
+      <c r="AV14" s="41"/>
+      <c r="AW14" s="41"/>
+      <c r="AX14" s="42" t="s">
+        <v>232</v>
+      </c>
+      <c r="AY14" s="42"/>
+      <c r="AZ14" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="BA14" s="43"/>
+      <c r="BB14" s="43"/>
+      <c r="BC14" s="35"/>
+      <c r="BD14" s="35"/>
+      <c r="BE14" s="35"/>
+      <c r="BF14" s="35"/>
+      <c r="BG14" s="35"/>
+      <c r="BH14" s="43"/>
+      <c r="BI14" s="43"/>
+      <c r="BJ14" s="44" t="s">
         <v>234</v>
       </c>
-      <c r="V14" s="38"/>
-      <c r="W14" s="39" t="s">
-        <v>126</v>
-      </c>
-      <c r="X14" s="39"/>
-      <c r="Y14" s="39"/>
-      <c r="Z14" s="39"/>
-      <c r="AA14" s="39"/>
-      <c r="AB14" s="40" t="s">
-        <v>236</v>
-      </c>
-      <c r="AC14" s="40"/>
-      <c r="AD14" s="41" t="s">
-        <v>54</v>
-      </c>
-      <c r="AE14" s="41"/>
-      <c r="AF14" s="41"/>
-      <c r="AG14" s="41"/>
-      <c r="AH14" s="41"/>
-      <c r="AI14" s="42" t="s">
-        <v>238</v>
-      </c>
-      <c r="AJ14" s="42"/>
-      <c r="AK14" s="43" t="s">
-        <v>35</v>
-      </c>
-      <c r="AL14" s="43"/>
-      <c r="AM14" s="43"/>
-      <c r="AN14" s="43"/>
-      <c r="AO14" s="43"/>
-      <c r="AP14" s="44" t="s">
-        <v>240</v>
-      </c>
-      <c r="AQ14" s="44"/>
-      <c r="AR14" s="45" t="s">
-        <v>34</v>
-      </c>
-      <c r="AS14" s="45"/>
-      <c r="AT14" s="45"/>
-      <c r="AU14" s="45"/>
-      <c r="AV14" s="45"/>
-      <c r="AW14" s="1"/>
-      <c r="AX14" s="1"/>
-      <c r="AY14" s="1"/>
+      <c r="BK14" s="44"/>
+      <c r="BL14" s="45" t="s">
+        <v>31</v>
+      </c>
+      <c r="BM14" s="45"/>
+      <c r="BN14" s="45"/>
+      <c r="BO14" s="45"/>
+      <c r="BP14" s="45"/>
+      <c r="BQ14" s="45"/>
+      <c r="BR14" s="45"/>
+      <c r="BS14" s="45"/>
+      <c r="BT14" s="45"/>
+      <c r="BU14" s="45"/>
+      <c r="BV14" s="1"/>
+      <c r="BW14" s="1"/>
+      <c r="BX14" s="1"/>
     </row>
-    <row r="15" spans="1:53" ht="106" thickBot="1">
+    <row r="15" spans="1:78" ht="106" thickBot="1">
       <c r="A15" s="46" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B15" s="47" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="C15" s="47"/>
       <c r="D15" s="48" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="E15" s="48"/>
       <c r="F15" s="48"/>
@@ -3469,72 +4000,97 @@
       <c r="L15" s="54"/>
       <c r="M15" s="54"/>
       <c r="N15" s="49" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="O15" s="49"/>
       <c r="P15" s="50" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="Q15" s="50"/>
       <c r="R15" s="50"/>
-      <c r="S15" s="50"/>
-      <c r="T15" s="50"/>
-      <c r="U15" s="51" t="s">
+      <c r="S15" s="56"/>
+      <c r="T15" s="56"/>
+      <c r="U15" s="56"/>
+      <c r="V15" s="56"/>
+      <c r="W15" s="56"/>
+      <c r="X15" s="50"/>
+      <c r="Y15" s="50"/>
+      <c r="Z15" s="51" t="s">
+        <v>229</v>
+      </c>
+      <c r="AA15" s="51"/>
+      <c r="AB15" s="52" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC15" s="52"/>
+      <c r="AD15" s="52"/>
+      <c r="AE15" s="52"/>
+      <c r="AF15" s="52"/>
+      <c r="AG15" s="52"/>
+      <c r="AH15" s="52"/>
+      <c r="AI15" s="52"/>
+      <c r="AJ15" s="52"/>
+      <c r="AK15" s="52"/>
+      <c r="AL15" s="53" t="s">
+        <v>231</v>
+      </c>
+      <c r="AM15" s="53"/>
+      <c r="AN15" s="54" t="s">
+        <v>51</v>
+      </c>
+      <c r="AO15" s="54"/>
+      <c r="AP15" s="54"/>
+      <c r="AQ15" s="54"/>
+      <c r="AR15" s="54"/>
+      <c r="AS15" s="54"/>
+      <c r="AT15" s="54"/>
+      <c r="AU15" s="54"/>
+      <c r="AV15" s="54"/>
+      <c r="AW15" s="54"/>
+      <c r="AX15" s="55" t="s">
+        <v>233</v>
+      </c>
+      <c r="AY15" s="55"/>
+      <c r="AZ15" s="56" t="s">
+        <v>115</v>
+      </c>
+      <c r="BA15" s="56"/>
+      <c r="BB15" s="56"/>
+      <c r="BC15" s="48"/>
+      <c r="BD15" s="48"/>
+      <c r="BE15" s="48"/>
+      <c r="BF15" s="48"/>
+      <c r="BG15" s="48"/>
+      <c r="BH15" s="56"/>
+      <c r="BI15" s="56"/>
+      <c r="BJ15" s="57" t="s">
         <v>235</v>
       </c>
-      <c r="V15" s="51"/>
-      <c r="W15" s="52" t="s">
-        <v>44</v>
-      </c>
-      <c r="X15" s="52"/>
-      <c r="Y15" s="52"/>
-      <c r="Z15" s="52"/>
-      <c r="AA15" s="52"/>
-      <c r="AB15" s="53" t="s">
-        <v>237</v>
-      </c>
-      <c r="AC15" s="53"/>
-      <c r="AD15" s="54" t="s">
-        <v>54</v>
-      </c>
-      <c r="AE15" s="54"/>
-      <c r="AF15" s="54"/>
-      <c r="AG15" s="54"/>
-      <c r="AH15" s="54"/>
-      <c r="AI15" s="55" t="s">
-        <v>239</v>
-      </c>
-      <c r="AJ15" s="55"/>
-      <c r="AK15" s="56" t="s">
-        <v>121</v>
-      </c>
-      <c r="AL15" s="56"/>
-      <c r="AM15" s="56"/>
-      <c r="AN15" s="56"/>
-      <c r="AO15" s="56"/>
-      <c r="AP15" s="57" t="s">
-        <v>241</v>
-      </c>
-      <c r="AQ15" s="57"/>
-      <c r="AR15" s="58" t="s">
-        <v>55</v>
-      </c>
-      <c r="AS15" s="58"/>
-      <c r="AT15" s="58"/>
-      <c r="AU15" s="58"/>
-      <c r="AV15" s="58"/>
-      <c r="AW15" s="1"/>
+      <c r="BK15" s="57"/>
+      <c r="BL15" s="58" t="s">
+        <v>52</v>
+      </c>
+      <c r="BM15" s="58"/>
+      <c r="BN15" s="58"/>
+      <c r="BO15" s="58"/>
+      <c r="BP15" s="58"/>
+      <c r="BQ15" s="58"/>
+      <c r="BR15" s="58"/>
+      <c r="BS15" s="58"/>
+      <c r="BT15" s="58"/>
+      <c r="BU15" s="58"/>
+      <c r="BV15" s="1"/>
     </row>
-    <row r="16" spans="1:53" ht="346" thickTop="1">
+    <row r="16" spans="1:78" ht="346" thickTop="1">
       <c r="A16" s="33" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B16" s="34" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="C16" s="34"/>
       <c r="D16" s="35" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="E16" s="35"/>
       <c r="F16" s="35"/>
@@ -3546,72 +4102,97 @@
       <c r="L16" s="41"/>
       <c r="M16" s="41"/>
       <c r="N16" s="36" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="O16" s="36"/>
       <c r="P16" s="37" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="Q16" s="37"/>
       <c r="R16" s="37"/>
-      <c r="S16" s="37"/>
-      <c r="T16" s="37"/>
-      <c r="U16" s="38" t="s">
+      <c r="S16" s="43"/>
+      <c r="T16" s="43"/>
+      <c r="U16" s="43"/>
+      <c r="V16" s="43"/>
+      <c r="W16" s="43"/>
+      <c r="X16" s="37"/>
+      <c r="Y16" s="37"/>
+      <c r="Z16" s="38" t="s">
+        <v>240</v>
+      </c>
+      <c r="AA16" s="38"/>
+      <c r="AB16" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="AC16" s="39"/>
+      <c r="AD16" s="39"/>
+      <c r="AE16" s="39"/>
+      <c r="AF16" s="39"/>
+      <c r="AG16" s="39"/>
+      <c r="AH16" s="39"/>
+      <c r="AI16" s="39"/>
+      <c r="AJ16" s="39"/>
+      <c r="AK16" s="39"/>
+      <c r="AL16" s="40" t="s">
+        <v>242</v>
+      </c>
+      <c r="AM16" s="40"/>
+      <c r="AN16" s="41" t="s">
+        <v>126</v>
+      </c>
+      <c r="AO16" s="41"/>
+      <c r="AP16" s="41"/>
+      <c r="AQ16" s="41"/>
+      <c r="AR16" s="41"/>
+      <c r="AS16" s="41"/>
+      <c r="AT16" s="41"/>
+      <c r="AU16" s="41"/>
+      <c r="AV16" s="41"/>
+      <c r="AW16" s="41"/>
+      <c r="AX16" s="42" t="s">
+        <v>244</v>
+      </c>
+      <c r="AY16" s="42"/>
+      <c r="AZ16" s="43" t="s">
+        <v>53</v>
+      </c>
+      <c r="BA16" s="43"/>
+      <c r="BB16" s="43"/>
+      <c r="BC16" s="35"/>
+      <c r="BD16" s="35"/>
+      <c r="BE16" s="35"/>
+      <c r="BF16" s="35"/>
+      <c r="BG16" s="35"/>
+      <c r="BH16" s="43"/>
+      <c r="BI16" s="43"/>
+      <c r="BJ16" s="44" t="s">
         <v>246</v>
       </c>
-      <c r="V16" s="38"/>
-      <c r="W16" s="39" t="s">
-        <v>98</v>
-      </c>
-      <c r="X16" s="39"/>
-      <c r="Y16" s="39"/>
-      <c r="Z16" s="39"/>
-      <c r="AA16" s="39"/>
-      <c r="AB16" s="40" t="s">
-        <v>248</v>
-      </c>
-      <c r="AC16" s="40"/>
-      <c r="AD16" s="41" t="s">
-        <v>132</v>
-      </c>
-      <c r="AE16" s="41"/>
-      <c r="AF16" s="41"/>
-      <c r="AG16" s="41"/>
-      <c r="AH16" s="41"/>
-      <c r="AI16" s="42" t="s">
-        <v>250</v>
-      </c>
-      <c r="AJ16" s="42"/>
-      <c r="AK16" s="43" t="s">
-        <v>56</v>
-      </c>
-      <c r="AL16" s="43"/>
-      <c r="AM16" s="43"/>
-      <c r="AN16" s="43"/>
-      <c r="AO16" s="43"/>
-      <c r="AP16" s="44" t="s">
-        <v>252</v>
-      </c>
-      <c r="AQ16" s="44"/>
-      <c r="AR16" s="45" t="s">
-        <v>57</v>
-      </c>
-      <c r="AS16" s="45"/>
-      <c r="AT16" s="45"/>
-      <c r="AU16" s="45"/>
-      <c r="AV16" s="45"/>
-      <c r="AW16" s="1"/>
+      <c r="BK16" s="44"/>
+      <c r="BL16" s="45" t="s">
+        <v>54</v>
+      </c>
+      <c r="BM16" s="45"/>
+      <c r="BN16" s="45"/>
+      <c r="BO16" s="45"/>
+      <c r="BP16" s="45"/>
+      <c r="BQ16" s="45"/>
+      <c r="BR16" s="45"/>
+      <c r="BS16" s="45"/>
+      <c r="BT16" s="45"/>
+      <c r="BU16" s="45"/>
+      <c r="BV16" s="1"/>
     </row>
-    <row r="17" spans="1:51" ht="76" thickBot="1">
+    <row r="17" spans="1:76" ht="76" thickBot="1">
       <c r="A17" s="46" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B17" s="47" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="C17" s="47"/>
       <c r="D17" s="48" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="E17" s="48"/>
       <c r="F17" s="48"/>
@@ -3623,74 +4204,99 @@
       <c r="L17" s="54"/>
       <c r="M17" s="54"/>
       <c r="N17" s="49" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="O17" s="49"/>
       <c r="P17" s="50" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="Q17" s="50"/>
       <c r="R17" s="50"/>
-      <c r="S17" s="50"/>
-      <c r="T17" s="50"/>
-      <c r="U17" s="51" t="s">
+      <c r="S17" s="56"/>
+      <c r="T17" s="56"/>
+      <c r="U17" s="56"/>
+      <c r="V17" s="56"/>
+      <c r="W17" s="56"/>
+      <c r="X17" s="50"/>
+      <c r="Y17" s="50"/>
+      <c r="Z17" s="51" t="s">
+        <v>241</v>
+      </c>
+      <c r="AA17" s="51"/>
+      <c r="AB17" s="52" t="s">
+        <v>94</v>
+      </c>
+      <c r="AC17" s="52"/>
+      <c r="AD17" s="52"/>
+      <c r="AE17" s="52"/>
+      <c r="AF17" s="52"/>
+      <c r="AG17" s="52"/>
+      <c r="AH17" s="52"/>
+      <c r="AI17" s="52"/>
+      <c r="AJ17" s="52"/>
+      <c r="AK17" s="52"/>
+      <c r="AL17" s="53" t="s">
+        <v>243</v>
+      </c>
+      <c r="AM17" s="53"/>
+      <c r="AN17" s="54" t="s">
+        <v>55</v>
+      </c>
+      <c r="AO17" s="54"/>
+      <c r="AP17" s="54"/>
+      <c r="AQ17" s="54"/>
+      <c r="AR17" s="54"/>
+      <c r="AS17" s="54"/>
+      <c r="AT17" s="54"/>
+      <c r="AU17" s="54"/>
+      <c r="AV17" s="54"/>
+      <c r="AW17" s="54"/>
+      <c r="AX17" s="55" t="s">
+        <v>245</v>
+      </c>
+      <c r="AY17" s="55"/>
+      <c r="AZ17" s="56" t="s">
+        <v>56</v>
+      </c>
+      <c r="BA17" s="56"/>
+      <c r="BB17" s="56"/>
+      <c r="BC17" s="48"/>
+      <c r="BD17" s="48"/>
+      <c r="BE17" s="48"/>
+      <c r="BF17" s="48"/>
+      <c r="BG17" s="48"/>
+      <c r="BH17" s="56"/>
+      <c r="BI17" s="56"/>
+      <c r="BJ17" s="57" t="s">
         <v>247</v>
       </c>
-      <c r="V17" s="51"/>
-      <c r="W17" s="52" t="s">
-        <v>100</v>
-      </c>
-      <c r="X17" s="52"/>
-      <c r="Y17" s="52"/>
-      <c r="Z17" s="52"/>
-      <c r="AA17" s="52"/>
-      <c r="AB17" s="53" t="s">
-        <v>249</v>
-      </c>
-      <c r="AC17" s="53"/>
-      <c r="AD17" s="54" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE17" s="54"/>
-      <c r="AF17" s="54"/>
-      <c r="AG17" s="54"/>
-      <c r="AH17" s="54"/>
-      <c r="AI17" s="55" t="s">
-        <v>251</v>
-      </c>
-      <c r="AJ17" s="55"/>
-      <c r="AK17" s="56" t="s">
-        <v>59</v>
-      </c>
-      <c r="AL17" s="56"/>
-      <c r="AM17" s="56"/>
-      <c r="AN17" s="56"/>
-      <c r="AO17" s="56"/>
-      <c r="AP17" s="57" t="s">
-        <v>253</v>
-      </c>
-      <c r="AQ17" s="57"/>
-      <c r="AR17" s="58" t="s">
-        <v>27</v>
-      </c>
-      <c r="AS17" s="58"/>
-      <c r="AT17" s="58"/>
-      <c r="AU17" s="58"/>
-      <c r="AV17" s="58"/>
-      <c r="AW17" s="1"/>
-      <c r="AX17" s="1"/>
-      <c r="AY17" s="1"/>
+      <c r="BK17" s="57"/>
+      <c r="BL17" s="58" t="s">
+        <v>25</v>
+      </c>
+      <c r="BM17" s="58"/>
+      <c r="BN17" s="58"/>
+      <c r="BO17" s="58"/>
+      <c r="BP17" s="58"/>
+      <c r="BQ17" s="58"/>
+      <c r="BR17" s="58"/>
+      <c r="BS17" s="58"/>
+      <c r="BT17" s="58"/>
+      <c r="BU17" s="58"/>
+      <c r="BV17" s="1"/>
+      <c r="BW17" s="1"/>
+      <c r="BX17" s="1"/>
     </row>
-    <row r="18" spans="1:51" ht="76" thickTop="1">
+    <row r="18" spans="1:76" ht="76" thickTop="1">
       <c r="A18" s="33" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B18" s="34" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="C18" s="34"/>
       <c r="D18" s="35" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="E18" s="35"/>
       <c r="F18" s="35"/>
@@ -3702,72 +4308,97 @@
       <c r="L18" s="41"/>
       <c r="M18" s="41"/>
       <c r="N18" s="36" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="O18" s="36"/>
       <c r="P18" s="37" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="Q18" s="37"/>
       <c r="R18" s="37"/>
-      <c r="S18" s="37"/>
-      <c r="T18" s="37"/>
-      <c r="U18" s="38" t="s">
+      <c r="S18" s="43"/>
+      <c r="T18" s="43"/>
+      <c r="U18" s="43"/>
+      <c r="V18" s="43"/>
+      <c r="W18" s="43"/>
+      <c r="X18" s="37"/>
+      <c r="Y18" s="37"/>
+      <c r="Z18" s="38" t="s">
+        <v>252</v>
+      </c>
+      <c r="AA18" s="38"/>
+      <c r="AB18" s="39" t="s">
+        <v>147</v>
+      </c>
+      <c r="AC18" s="39"/>
+      <c r="AD18" s="39"/>
+      <c r="AE18" s="39"/>
+      <c r="AF18" s="39"/>
+      <c r="AG18" s="39"/>
+      <c r="AH18" s="39"/>
+      <c r="AI18" s="39"/>
+      <c r="AJ18" s="39"/>
+      <c r="AK18" s="39"/>
+      <c r="AL18" s="40" t="s">
+        <v>254</v>
+      </c>
+      <c r="AM18" s="40"/>
+      <c r="AN18" s="41" t="s">
+        <v>57</v>
+      </c>
+      <c r="AO18" s="41"/>
+      <c r="AP18" s="41"/>
+      <c r="AQ18" s="41"/>
+      <c r="AR18" s="41"/>
+      <c r="AS18" s="41"/>
+      <c r="AT18" s="41"/>
+      <c r="AU18" s="41"/>
+      <c r="AV18" s="41"/>
+      <c r="AW18" s="41"/>
+      <c r="AX18" s="42" t="s">
+        <v>256</v>
+      </c>
+      <c r="AY18" s="42"/>
+      <c r="AZ18" s="43" t="s">
+        <v>58</v>
+      </c>
+      <c r="BA18" s="43"/>
+      <c r="BB18" s="43"/>
+      <c r="BC18" s="35"/>
+      <c r="BD18" s="35"/>
+      <c r="BE18" s="35"/>
+      <c r="BF18" s="35"/>
+      <c r="BG18" s="35"/>
+      <c r="BH18" s="43"/>
+      <c r="BI18" s="43"/>
+      <c r="BJ18" s="44" t="s">
         <v>258</v>
       </c>
-      <c r="V18" s="38"/>
-      <c r="W18" s="39" t="s">
-        <v>153</v>
-      </c>
-      <c r="X18" s="39"/>
-      <c r="Y18" s="39"/>
-      <c r="Z18" s="39"/>
-      <c r="AA18" s="39"/>
-      <c r="AB18" s="40" t="s">
-        <v>260</v>
-      </c>
-      <c r="AC18" s="40"/>
-      <c r="AD18" s="41" t="s">
-        <v>60</v>
-      </c>
-      <c r="AE18" s="41"/>
-      <c r="AF18" s="41"/>
-      <c r="AG18" s="41"/>
-      <c r="AH18" s="41"/>
-      <c r="AI18" s="42" t="s">
-        <v>262</v>
-      </c>
-      <c r="AJ18" s="42"/>
-      <c r="AK18" s="43" t="s">
-        <v>61</v>
-      </c>
-      <c r="AL18" s="43"/>
-      <c r="AM18" s="43"/>
-      <c r="AN18" s="43"/>
-      <c r="AO18" s="43"/>
-      <c r="AP18" s="44" t="s">
-        <v>264</v>
-      </c>
-      <c r="AQ18" s="44"/>
-      <c r="AR18" s="45" t="s">
-        <v>28</v>
-      </c>
-      <c r="AS18" s="45"/>
-      <c r="AT18" s="45"/>
-      <c r="AU18" s="45"/>
-      <c r="AV18" s="45"/>
-      <c r="AW18" s="1"/>
+      <c r="BK18" s="44"/>
+      <c r="BL18" s="45" t="s">
+        <v>26</v>
+      </c>
+      <c r="BM18" s="45"/>
+      <c r="BN18" s="45"/>
+      <c r="BO18" s="45"/>
+      <c r="BP18" s="45"/>
+      <c r="BQ18" s="45"/>
+      <c r="BR18" s="45"/>
+      <c r="BS18" s="45"/>
+      <c r="BT18" s="45"/>
+      <c r="BU18" s="45"/>
+      <c r="BV18" s="1"/>
     </row>
-    <row r="19" spans="1:51" ht="61" thickBot="1">
+    <row r="19" spans="1:76" ht="61" thickBot="1">
       <c r="A19" s="46" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B19" s="47" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="C19" s="47"/>
       <c r="D19" s="48" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="E19" s="48"/>
       <c r="F19" s="48"/>
@@ -3779,72 +4410,97 @@
       <c r="L19" s="54"/>
       <c r="M19" s="54"/>
       <c r="N19" s="49" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="O19" s="49"/>
       <c r="P19" s="50" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="Q19" s="50"/>
       <c r="R19" s="50"/>
-      <c r="S19" s="50"/>
-      <c r="T19" s="50"/>
-      <c r="U19" s="51" t="s">
+      <c r="S19" s="56"/>
+      <c r="T19" s="56"/>
+      <c r="U19" s="56"/>
+      <c r="V19" s="56"/>
+      <c r="W19" s="56"/>
+      <c r="X19" s="50"/>
+      <c r="Y19" s="50"/>
+      <c r="Z19" s="51" t="s">
+        <v>253</v>
+      </c>
+      <c r="AA19" s="51"/>
+      <c r="AB19" s="52" t="s">
+        <v>130</v>
+      </c>
+      <c r="AC19" s="52"/>
+      <c r="AD19" s="52"/>
+      <c r="AE19" s="52"/>
+      <c r="AF19" s="52"/>
+      <c r="AG19" s="52"/>
+      <c r="AH19" s="52"/>
+      <c r="AI19" s="52"/>
+      <c r="AJ19" s="52"/>
+      <c r="AK19" s="52"/>
+      <c r="AL19" s="53" t="s">
+        <v>255</v>
+      </c>
+      <c r="AM19" s="53"/>
+      <c r="AN19" s="54" t="s">
+        <v>59</v>
+      </c>
+      <c r="AO19" s="54"/>
+      <c r="AP19" s="54"/>
+      <c r="AQ19" s="54"/>
+      <c r="AR19" s="54"/>
+      <c r="AS19" s="54"/>
+      <c r="AT19" s="54"/>
+      <c r="AU19" s="54"/>
+      <c r="AV19" s="54"/>
+      <c r="AW19" s="54"/>
+      <c r="AX19" s="55" t="s">
+        <v>257</v>
+      </c>
+      <c r="AY19" s="55"/>
+      <c r="AZ19" s="56" t="s">
+        <v>60</v>
+      </c>
+      <c r="BA19" s="56"/>
+      <c r="BB19" s="56"/>
+      <c r="BC19" s="48"/>
+      <c r="BD19" s="48"/>
+      <c r="BE19" s="48"/>
+      <c r="BF19" s="48"/>
+      <c r="BG19" s="48"/>
+      <c r="BH19" s="56"/>
+      <c r="BI19" s="56"/>
+      <c r="BJ19" s="57" t="s">
         <v>259</v>
       </c>
-      <c r="V19" s="51"/>
-      <c r="W19" s="52" t="s">
-        <v>136</v>
-      </c>
-      <c r="X19" s="52"/>
-      <c r="Y19" s="52"/>
-      <c r="Z19" s="52"/>
-      <c r="AA19" s="52"/>
-      <c r="AB19" s="53" t="s">
-        <v>261</v>
-      </c>
-      <c r="AC19" s="53"/>
-      <c r="AD19" s="54" t="s">
-        <v>62</v>
-      </c>
-      <c r="AE19" s="54"/>
-      <c r="AF19" s="54"/>
-      <c r="AG19" s="54"/>
-      <c r="AH19" s="54"/>
-      <c r="AI19" s="55" t="s">
-        <v>263</v>
-      </c>
-      <c r="AJ19" s="55"/>
-      <c r="AK19" s="56" t="s">
-        <v>63</v>
-      </c>
-      <c r="AL19" s="56"/>
-      <c r="AM19" s="56"/>
-      <c r="AN19" s="56"/>
-      <c r="AO19" s="56"/>
-      <c r="AP19" s="57" t="s">
-        <v>265</v>
-      </c>
-      <c r="AQ19" s="57"/>
-      <c r="AR19" s="58" t="s">
-        <v>64</v>
-      </c>
-      <c r="AS19" s="58"/>
-      <c r="AT19" s="58"/>
-      <c r="AU19" s="58"/>
-      <c r="AV19" s="58"/>
-      <c r="AW19" s="1"/>
+      <c r="BK19" s="57"/>
+      <c r="BL19" s="58" t="s">
+        <v>61</v>
+      </c>
+      <c r="BM19" s="58"/>
+      <c r="BN19" s="58"/>
+      <c r="BO19" s="58"/>
+      <c r="BP19" s="58"/>
+      <c r="BQ19" s="58"/>
+      <c r="BR19" s="58"/>
+      <c r="BS19" s="58"/>
+      <c r="BT19" s="58"/>
+      <c r="BU19" s="58"/>
+      <c r="BV19" s="1"/>
     </row>
-    <row r="20" spans="1:51" ht="76" thickTop="1">
+    <row r="20" spans="1:76" ht="76" thickTop="1">
       <c r="A20" s="33" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B20" s="34" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="C20" s="34"/>
       <c r="D20" s="35" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="E20" s="35"/>
       <c r="F20" s="35"/>
@@ -3856,72 +4512,97 @@
       <c r="L20" s="41"/>
       <c r="M20" s="41"/>
       <c r="N20" s="36" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="O20" s="36"/>
       <c r="P20" s="37" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="Q20" s="37"/>
       <c r="R20" s="37"/>
-      <c r="S20" s="37"/>
-      <c r="T20" s="37"/>
-      <c r="U20" s="38" t="s">
+      <c r="S20" s="43"/>
+      <c r="T20" s="43"/>
+      <c r="U20" s="43"/>
+      <c r="V20" s="43"/>
+      <c r="W20" s="43"/>
+      <c r="X20" s="37"/>
+      <c r="Y20" s="37"/>
+      <c r="Z20" s="38" t="s">
+        <v>264</v>
+      </c>
+      <c r="AA20" s="38"/>
+      <c r="AB20" s="39" t="s">
+        <v>98</v>
+      </c>
+      <c r="AC20" s="39"/>
+      <c r="AD20" s="39"/>
+      <c r="AE20" s="39"/>
+      <c r="AF20" s="39"/>
+      <c r="AG20" s="39"/>
+      <c r="AH20" s="39"/>
+      <c r="AI20" s="39"/>
+      <c r="AJ20" s="39"/>
+      <c r="AK20" s="39"/>
+      <c r="AL20" s="40" t="s">
+        <v>266</v>
+      </c>
+      <c r="AM20" s="40"/>
+      <c r="AN20" s="41" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO20" s="41"/>
+      <c r="AP20" s="41"/>
+      <c r="AQ20" s="41"/>
+      <c r="AR20" s="41"/>
+      <c r="AS20" s="41"/>
+      <c r="AT20" s="41"/>
+      <c r="AU20" s="41"/>
+      <c r="AV20" s="41"/>
+      <c r="AW20" s="41"/>
+      <c r="AX20" s="42" t="s">
+        <v>268</v>
+      </c>
+      <c r="AY20" s="42"/>
+      <c r="AZ20" s="43" t="s">
+        <v>33</v>
+      </c>
+      <c r="BA20" s="43"/>
+      <c r="BB20" s="43"/>
+      <c r="BC20" s="35"/>
+      <c r="BD20" s="35"/>
+      <c r="BE20" s="35"/>
+      <c r="BF20" s="35"/>
+      <c r="BG20" s="35"/>
+      <c r="BH20" s="43"/>
+      <c r="BI20" s="43"/>
+      <c r="BJ20" s="44" t="s">
         <v>270</v>
       </c>
-      <c r="V20" s="38"/>
-      <c r="W20" s="39" t="s">
-        <v>104</v>
-      </c>
-      <c r="X20" s="39"/>
-      <c r="Y20" s="39"/>
-      <c r="Z20" s="39"/>
-      <c r="AA20" s="39"/>
-      <c r="AB20" s="40" t="s">
-        <v>272</v>
-      </c>
-      <c r="AC20" s="40"/>
-      <c r="AD20" s="41" t="s">
-        <v>65</v>
-      </c>
-      <c r="AE20" s="41"/>
-      <c r="AF20" s="41"/>
-      <c r="AG20" s="41"/>
-      <c r="AH20" s="41"/>
-      <c r="AI20" s="42" t="s">
-        <v>274</v>
-      </c>
-      <c r="AJ20" s="42"/>
-      <c r="AK20" s="43" t="s">
-        <v>36</v>
-      </c>
-      <c r="AL20" s="43"/>
-      <c r="AM20" s="43"/>
-      <c r="AN20" s="43"/>
-      <c r="AO20" s="43"/>
-      <c r="AP20" s="44" t="s">
-        <v>276</v>
-      </c>
-      <c r="AQ20" s="44"/>
-      <c r="AR20" s="45" t="s">
-        <v>66</v>
-      </c>
-      <c r="AS20" s="45"/>
-      <c r="AT20" s="45"/>
-      <c r="AU20" s="45"/>
-      <c r="AV20" s="45"/>
-      <c r="AW20" s="1"/>
+      <c r="BK20" s="44"/>
+      <c r="BL20" s="45" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM20" s="45"/>
+      <c r="BN20" s="45"/>
+      <c r="BO20" s="45"/>
+      <c r="BP20" s="45"/>
+      <c r="BQ20" s="45"/>
+      <c r="BR20" s="45"/>
+      <c r="BS20" s="45"/>
+      <c r="BT20" s="45"/>
+      <c r="BU20" s="45"/>
+      <c r="BV20" s="1"/>
     </row>
-    <row r="21" spans="1:51" ht="76" thickBot="1">
+    <row r="21" spans="1:76" ht="76" thickBot="1">
       <c r="A21" s="46" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B21" s="47" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="C21" s="47"/>
       <c r="D21" s="48" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="E21" s="48"/>
       <c r="F21" s="48"/>
@@ -3933,72 +4614,97 @@
       <c r="L21" s="54"/>
       <c r="M21" s="54"/>
       <c r="N21" s="49" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="O21" s="49"/>
       <c r="P21" s="50" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="Q21" s="50"/>
       <c r="R21" s="50"/>
-      <c r="S21" s="50"/>
-      <c r="T21" s="50"/>
-      <c r="U21" s="51" t="s">
+      <c r="S21" s="56"/>
+      <c r="T21" s="56"/>
+      <c r="U21" s="56"/>
+      <c r="V21" s="56"/>
+      <c r="W21" s="56"/>
+      <c r="X21" s="50"/>
+      <c r="Y21" s="50"/>
+      <c r="Z21" s="51" t="s">
+        <v>265</v>
+      </c>
+      <c r="AA21" s="51"/>
+      <c r="AB21" s="52" t="s">
+        <v>137</v>
+      </c>
+      <c r="AC21" s="52"/>
+      <c r="AD21" s="52"/>
+      <c r="AE21" s="52"/>
+      <c r="AF21" s="52"/>
+      <c r="AG21" s="52"/>
+      <c r="AH21" s="52"/>
+      <c r="AI21" s="52"/>
+      <c r="AJ21" s="52"/>
+      <c r="AK21" s="52"/>
+      <c r="AL21" s="53" t="s">
+        <v>267</v>
+      </c>
+      <c r="AM21" s="53"/>
+      <c r="AN21" s="54" t="s">
+        <v>131</v>
+      </c>
+      <c r="AO21" s="54"/>
+      <c r="AP21" s="54"/>
+      <c r="AQ21" s="54"/>
+      <c r="AR21" s="54"/>
+      <c r="AS21" s="54"/>
+      <c r="AT21" s="54"/>
+      <c r="AU21" s="54"/>
+      <c r="AV21" s="54"/>
+      <c r="AW21" s="54"/>
+      <c r="AX21" s="55" t="s">
+        <v>269</v>
+      </c>
+      <c r="AY21" s="55"/>
+      <c r="AZ21" s="56" t="s">
+        <v>64</v>
+      </c>
+      <c r="BA21" s="56"/>
+      <c r="BB21" s="56"/>
+      <c r="BC21" s="48"/>
+      <c r="BD21" s="48"/>
+      <c r="BE21" s="48"/>
+      <c r="BF21" s="48"/>
+      <c r="BG21" s="48"/>
+      <c r="BH21" s="56"/>
+      <c r="BI21" s="56"/>
+      <c r="BJ21" s="57" t="s">
         <v>271</v>
       </c>
-      <c r="V21" s="51"/>
-      <c r="W21" s="52" t="s">
-        <v>143</v>
-      </c>
-      <c r="X21" s="52"/>
-      <c r="Y21" s="52"/>
-      <c r="Z21" s="52"/>
-      <c r="AA21" s="52"/>
-      <c r="AB21" s="53" t="s">
-        <v>273</v>
-      </c>
-      <c r="AC21" s="53"/>
-      <c r="AD21" s="54" t="s">
-        <v>137</v>
-      </c>
-      <c r="AE21" s="54"/>
-      <c r="AF21" s="54"/>
-      <c r="AG21" s="54"/>
-      <c r="AH21" s="54"/>
-      <c r="AI21" s="55" t="s">
-        <v>275</v>
-      </c>
-      <c r="AJ21" s="55"/>
-      <c r="AK21" s="56" t="s">
-        <v>67</v>
-      </c>
-      <c r="AL21" s="56"/>
-      <c r="AM21" s="56"/>
-      <c r="AN21" s="56"/>
-      <c r="AO21" s="56"/>
-      <c r="AP21" s="57" t="s">
-        <v>277</v>
-      </c>
-      <c r="AQ21" s="57"/>
-      <c r="AR21" s="58" t="s">
-        <v>68</v>
-      </c>
-      <c r="AS21" s="58"/>
-      <c r="AT21" s="58"/>
-      <c r="AU21" s="58"/>
-      <c r="AV21" s="58"/>
-      <c r="AW21" s="1"/>
+      <c r="BK21" s="57"/>
+      <c r="BL21" s="58" t="s">
+        <v>65</v>
+      </c>
+      <c r="BM21" s="58"/>
+      <c r="BN21" s="58"/>
+      <c r="BO21" s="58"/>
+      <c r="BP21" s="58"/>
+      <c r="BQ21" s="58"/>
+      <c r="BR21" s="58"/>
+      <c r="BS21" s="58"/>
+      <c r="BT21" s="58"/>
+      <c r="BU21" s="58"/>
+      <c r="BV21" s="1"/>
     </row>
-    <row r="22" spans="1:51" ht="76" thickTop="1">
+    <row r="22" spans="1:76" ht="76" thickTop="1">
       <c r="A22" s="33" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B22" s="34" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="C22" s="34"/>
       <c r="D22" s="35" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="E22" s="35"/>
       <c r="F22" s="35"/>
@@ -4010,72 +4716,97 @@
       <c r="L22" s="41"/>
       <c r="M22" s="41"/>
       <c r="N22" s="36" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="O22" s="36"/>
       <c r="P22" s="37" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="Q22" s="37"/>
       <c r="R22" s="37"/>
-      <c r="S22" s="37"/>
-      <c r="T22" s="37"/>
-      <c r="U22" s="38" t="s">
+      <c r="S22" s="43"/>
+      <c r="T22" s="43"/>
+      <c r="U22" s="43"/>
+      <c r="V22" s="43"/>
+      <c r="W22" s="43"/>
+      <c r="X22" s="37"/>
+      <c r="Y22" s="37"/>
+      <c r="Z22" s="38" t="s">
+        <v>276</v>
+      </c>
+      <c r="AA22" s="38"/>
+      <c r="AB22" s="39" t="s">
+        <v>123</v>
+      </c>
+      <c r="AC22" s="39"/>
+      <c r="AD22" s="39"/>
+      <c r="AE22" s="39"/>
+      <c r="AF22" s="39"/>
+      <c r="AG22" s="39"/>
+      <c r="AH22" s="39"/>
+      <c r="AI22" s="39"/>
+      <c r="AJ22" s="39"/>
+      <c r="AK22" s="39"/>
+      <c r="AL22" s="40" t="s">
+        <v>278</v>
+      </c>
+      <c r="AM22" s="40"/>
+      <c r="AN22" s="41" t="s">
+        <v>45</v>
+      </c>
+      <c r="AO22" s="41"/>
+      <c r="AP22" s="41"/>
+      <c r="AQ22" s="41"/>
+      <c r="AR22" s="41"/>
+      <c r="AS22" s="41"/>
+      <c r="AT22" s="41"/>
+      <c r="AU22" s="41"/>
+      <c r="AV22" s="41"/>
+      <c r="AW22" s="41"/>
+      <c r="AX22" s="42" t="s">
+        <v>280</v>
+      </c>
+      <c r="AY22" s="42"/>
+      <c r="AZ22" s="43" t="s">
+        <v>66</v>
+      </c>
+      <c r="BA22" s="43"/>
+      <c r="BB22" s="43"/>
+      <c r="BC22" s="35"/>
+      <c r="BD22" s="35"/>
+      <c r="BE22" s="35"/>
+      <c r="BF22" s="35"/>
+      <c r="BG22" s="35"/>
+      <c r="BH22" s="43"/>
+      <c r="BI22" s="43"/>
+      <c r="BJ22" s="44" t="s">
         <v>282</v>
       </c>
-      <c r="V22" s="38"/>
-      <c r="W22" s="39" t="s">
-        <v>129</v>
-      </c>
-      <c r="X22" s="39"/>
-      <c r="Y22" s="39"/>
-      <c r="Z22" s="39"/>
-      <c r="AA22" s="39"/>
-      <c r="AB22" s="40" t="s">
-        <v>284</v>
-      </c>
-      <c r="AC22" s="40"/>
-      <c r="AD22" s="41" t="s">
-        <v>48</v>
-      </c>
-      <c r="AE22" s="41"/>
-      <c r="AF22" s="41"/>
-      <c r="AG22" s="41"/>
-      <c r="AH22" s="41"/>
-      <c r="AI22" s="42" t="s">
-        <v>286</v>
-      </c>
-      <c r="AJ22" s="42"/>
-      <c r="AK22" s="43" t="s">
-        <v>69</v>
-      </c>
-      <c r="AL22" s="43"/>
-      <c r="AM22" s="43"/>
-      <c r="AN22" s="43"/>
-      <c r="AO22" s="43"/>
-      <c r="AP22" s="44" t="s">
-        <v>288</v>
-      </c>
-      <c r="AQ22" s="44"/>
-      <c r="AR22" s="45" t="s">
-        <v>140</v>
-      </c>
-      <c r="AS22" s="45"/>
-      <c r="AT22" s="45"/>
-      <c r="AU22" s="45"/>
-      <c r="AV22" s="45"/>
-      <c r="AW22" s="1"/>
+      <c r="BK22" s="44"/>
+      <c r="BL22" s="45" t="s">
+        <v>134</v>
+      </c>
+      <c r="BM22" s="45"/>
+      <c r="BN22" s="45"/>
+      <c r="BO22" s="45"/>
+      <c r="BP22" s="45"/>
+      <c r="BQ22" s="45"/>
+      <c r="BR22" s="45"/>
+      <c r="BS22" s="45"/>
+      <c r="BT22" s="45"/>
+      <c r="BU22" s="45"/>
+      <c r="BV22" s="1"/>
     </row>
-    <row r="23" spans="1:51" ht="151" thickBot="1">
+    <row r="23" spans="1:76" ht="151" thickBot="1">
       <c r="A23" s="46" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B23" s="47" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="C23" s="47"/>
       <c r="D23" s="48" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="E23" s="48"/>
       <c r="F23" s="48"/>
@@ -4087,74 +4818,99 @@
       <c r="L23" s="54"/>
       <c r="M23" s="54"/>
       <c r="N23" s="49" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="O23" s="49"/>
       <c r="P23" s="50" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="Q23" s="50"/>
       <c r="R23" s="50"/>
-      <c r="S23" s="50"/>
-      <c r="T23" s="50"/>
-      <c r="U23" s="51" t="s">
+      <c r="S23" s="56"/>
+      <c r="T23" s="56"/>
+      <c r="U23" s="56"/>
+      <c r="V23" s="56"/>
+      <c r="W23" s="56"/>
+      <c r="X23" s="50"/>
+      <c r="Y23" s="50"/>
+      <c r="Z23" s="51" t="s">
+        <v>277</v>
+      </c>
+      <c r="AA23" s="51"/>
+      <c r="AB23" s="52" t="s">
+        <v>149</v>
+      </c>
+      <c r="AC23" s="52"/>
+      <c r="AD23" s="52"/>
+      <c r="AE23" s="52"/>
+      <c r="AF23" s="52"/>
+      <c r="AG23" s="52"/>
+      <c r="AH23" s="52"/>
+      <c r="AI23" s="52"/>
+      <c r="AJ23" s="52"/>
+      <c r="AK23" s="52"/>
+      <c r="AL23" s="53" t="s">
+        <v>279</v>
+      </c>
+      <c r="AM23" s="53"/>
+      <c r="AN23" s="54" t="s">
+        <v>150</v>
+      </c>
+      <c r="AO23" s="54"/>
+      <c r="AP23" s="54"/>
+      <c r="AQ23" s="54"/>
+      <c r="AR23" s="54"/>
+      <c r="AS23" s="54"/>
+      <c r="AT23" s="54"/>
+      <c r="AU23" s="54"/>
+      <c r="AV23" s="54"/>
+      <c r="AW23" s="54"/>
+      <c r="AX23" s="55" t="s">
+        <v>281</v>
+      </c>
+      <c r="AY23" s="55"/>
+      <c r="AZ23" s="56" t="s">
+        <v>152</v>
+      </c>
+      <c r="BA23" s="56"/>
+      <c r="BB23" s="56"/>
+      <c r="BC23" s="48"/>
+      <c r="BD23" s="48"/>
+      <c r="BE23" s="48"/>
+      <c r="BF23" s="48"/>
+      <c r="BG23" s="48"/>
+      <c r="BH23" s="56"/>
+      <c r="BI23" s="56"/>
+      <c r="BJ23" s="57" t="s">
         <v>283</v>
       </c>
-      <c r="V23" s="51"/>
-      <c r="W23" s="52" t="s">
-        <v>155</v>
-      </c>
-      <c r="X23" s="52"/>
-      <c r="Y23" s="52"/>
-      <c r="Z23" s="52"/>
-      <c r="AA23" s="52"/>
-      <c r="AB23" s="53" t="s">
-        <v>285</v>
-      </c>
-      <c r="AC23" s="53"/>
-      <c r="AD23" s="54" t="s">
-        <v>156</v>
-      </c>
-      <c r="AE23" s="54"/>
-      <c r="AF23" s="54"/>
-      <c r="AG23" s="54"/>
-      <c r="AH23" s="54"/>
-      <c r="AI23" s="55" t="s">
-        <v>287</v>
-      </c>
-      <c r="AJ23" s="55"/>
-      <c r="AK23" s="56" t="s">
-        <v>158</v>
-      </c>
-      <c r="AL23" s="56"/>
-      <c r="AM23" s="56"/>
-      <c r="AN23" s="56"/>
-      <c r="AO23" s="56"/>
-      <c r="AP23" s="57" t="s">
-        <v>289</v>
-      </c>
-      <c r="AQ23" s="57"/>
-      <c r="AR23" s="58" t="s">
-        <v>159</v>
-      </c>
-      <c r="AS23" s="58"/>
-      <c r="AT23" s="58"/>
-      <c r="AU23" s="58"/>
-      <c r="AV23" s="58"/>
-      <c r="AW23" s="1"/>
-      <c r="AX23" s="2"/>
-      <c r="AY23" s="2"/>
+      <c r="BK23" s="57"/>
+      <c r="BL23" s="58" t="s">
+        <v>153</v>
+      </c>
+      <c r="BM23" s="58"/>
+      <c r="BN23" s="58"/>
+      <c r="BO23" s="58"/>
+      <c r="BP23" s="58"/>
+      <c r="BQ23" s="58"/>
+      <c r="BR23" s="58"/>
+      <c r="BS23" s="58"/>
+      <c r="BT23" s="58"/>
+      <c r="BU23" s="58"/>
+      <c r="BV23" s="1"/>
+      <c r="BW23" s="2"/>
+      <c r="BX23" s="2"/>
     </row>
-    <row r="24" spans="1:51" ht="91" thickTop="1">
+    <row r="24" spans="1:76" ht="91" thickTop="1">
       <c r="A24" s="33" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B24" s="34" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="C24" s="34"/>
       <c r="D24" s="35" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="E24" s="35"/>
       <c r="F24" s="35"/>
@@ -4166,74 +4922,99 @@
       <c r="L24" s="41"/>
       <c r="M24" s="41"/>
       <c r="N24" s="36" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="O24" s="36"/>
       <c r="P24" s="37" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="Q24" s="37"/>
       <c r="R24" s="37"/>
-      <c r="S24" s="37"/>
-      <c r="T24" s="37"/>
-      <c r="U24" s="38" t="s">
-        <v>290</v>
-      </c>
-      <c r="V24" s="38"/>
-      <c r="W24" s="39" t="s">
-        <v>107</v>
-      </c>
-      <c r="X24" s="39"/>
-      <c r="Y24" s="39"/>
-      <c r="Z24" s="39"/>
-      <c r="AA24" s="39"/>
-      <c r="AB24" s="40" t="s">
-        <v>290</v>
-      </c>
-      <c r="AC24" s="40"/>
-      <c r="AD24" s="41" t="s">
-        <v>128</v>
-      </c>
-      <c r="AE24" s="41"/>
-      <c r="AF24" s="41"/>
-      <c r="AG24" s="41"/>
-      <c r="AH24" s="41"/>
-      <c r="AI24" s="42" t="s">
-        <v>290</v>
-      </c>
-      <c r="AJ24" s="42"/>
-      <c r="AK24" s="43" t="s">
-        <v>125</v>
-      </c>
-      <c r="AL24" s="43"/>
-      <c r="AM24" s="43"/>
-      <c r="AN24" s="43"/>
-      <c r="AO24" s="43"/>
-      <c r="AP24" s="44" t="s">
-        <v>290</v>
-      </c>
-      <c r="AQ24" s="44"/>
-      <c r="AR24" s="45" t="s">
-        <v>70</v>
-      </c>
-      <c r="AS24" s="45"/>
-      <c r="AT24" s="45"/>
-      <c r="AU24" s="45"/>
-      <c r="AV24" s="45"/>
-      <c r="AW24" s="1"/>
-      <c r="AX24" s="1"/>
-      <c r="AY24" s="1"/>
+      <c r="S24" s="43"/>
+      <c r="T24" s="43"/>
+      <c r="U24" s="43"/>
+      <c r="V24" s="43"/>
+      <c r="W24" s="43"/>
+      <c r="X24" s="37"/>
+      <c r="Y24" s="37"/>
+      <c r="Z24" s="38" t="s">
+        <v>284</v>
+      </c>
+      <c r="AA24" s="38"/>
+      <c r="AB24" s="39" t="s">
+        <v>101</v>
+      </c>
+      <c r="AC24" s="39"/>
+      <c r="AD24" s="39"/>
+      <c r="AE24" s="39"/>
+      <c r="AF24" s="39"/>
+      <c r="AG24" s="39"/>
+      <c r="AH24" s="39"/>
+      <c r="AI24" s="39"/>
+      <c r="AJ24" s="39"/>
+      <c r="AK24" s="39"/>
+      <c r="AL24" s="40" t="s">
+        <v>284</v>
+      </c>
+      <c r="AM24" s="40"/>
+      <c r="AN24" s="41" t="s">
+        <v>122</v>
+      </c>
+      <c r="AO24" s="41"/>
+      <c r="AP24" s="41"/>
+      <c r="AQ24" s="41"/>
+      <c r="AR24" s="41"/>
+      <c r="AS24" s="41"/>
+      <c r="AT24" s="41"/>
+      <c r="AU24" s="41"/>
+      <c r="AV24" s="41"/>
+      <c r="AW24" s="41"/>
+      <c r="AX24" s="42" t="s">
+        <v>284</v>
+      </c>
+      <c r="AY24" s="42"/>
+      <c r="AZ24" s="43" t="s">
+        <v>119</v>
+      </c>
+      <c r="BA24" s="43"/>
+      <c r="BB24" s="43"/>
+      <c r="BC24" s="35"/>
+      <c r="BD24" s="35"/>
+      <c r="BE24" s="35"/>
+      <c r="BF24" s="35"/>
+      <c r="BG24" s="35"/>
+      <c r="BH24" s="43"/>
+      <c r="BI24" s="43"/>
+      <c r="BJ24" s="44" t="s">
+        <v>284</v>
+      </c>
+      <c r="BK24" s="44"/>
+      <c r="BL24" s="45" t="s">
+        <v>67</v>
+      </c>
+      <c r="BM24" s="45"/>
+      <c r="BN24" s="45"/>
+      <c r="BO24" s="45"/>
+      <c r="BP24" s="45"/>
+      <c r="BQ24" s="45"/>
+      <c r="BR24" s="45"/>
+      <c r="BS24" s="45"/>
+      <c r="BT24" s="45"/>
+      <c r="BU24" s="45"/>
+      <c r="BV24" s="1"/>
+      <c r="BW24" s="1"/>
+      <c r="BX24" s="1"/>
     </row>
-    <row r="25" spans="1:51" ht="106" thickBot="1">
+    <row r="25" spans="1:76" ht="106" thickBot="1">
       <c r="A25" s="46" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B25" s="47" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="C25" s="47"/>
       <c r="D25" s="48" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="E25" s="48"/>
       <c r="F25" s="48"/>
@@ -4245,72 +5026,97 @@
       <c r="L25" s="54"/>
       <c r="M25" s="54"/>
       <c r="N25" s="49" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="O25" s="49"/>
       <c r="P25" s="50" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="Q25" s="50"/>
       <c r="R25" s="50"/>
-      <c r="S25" s="50"/>
-      <c r="T25" s="50"/>
-      <c r="U25" s="51" t="s">
-        <v>291</v>
-      </c>
-      <c r="V25" s="51"/>
-      <c r="W25" s="52" t="s">
-        <v>109</v>
-      </c>
-      <c r="X25" s="52"/>
-      <c r="Y25" s="52"/>
-      <c r="Z25" s="52"/>
-      <c r="AA25" s="52"/>
-      <c r="AB25" s="53" t="s">
-        <v>291</v>
-      </c>
-      <c r="AC25" s="53"/>
-      <c r="AD25" s="54" t="s">
-        <v>133</v>
-      </c>
-      <c r="AE25" s="54"/>
-      <c r="AF25" s="54"/>
-      <c r="AG25" s="54"/>
-      <c r="AH25" s="54"/>
-      <c r="AI25" s="55" t="s">
-        <v>291</v>
-      </c>
-      <c r="AJ25" s="55"/>
-      <c r="AK25" s="56" t="s">
-        <v>71</v>
-      </c>
-      <c r="AL25" s="56"/>
-      <c r="AM25" s="56"/>
-      <c r="AN25" s="56"/>
-      <c r="AO25" s="56"/>
-      <c r="AP25" s="57" t="s">
-        <v>291</v>
-      </c>
-      <c r="AQ25" s="57"/>
-      <c r="AR25" s="58" t="s">
-        <v>72</v>
-      </c>
-      <c r="AS25" s="58"/>
-      <c r="AT25" s="58"/>
-      <c r="AU25" s="58"/>
-      <c r="AV25" s="58"/>
-      <c r="AW25" s="1"/>
+      <c r="S25" s="56"/>
+      <c r="T25" s="56"/>
+      <c r="U25" s="56"/>
+      <c r="V25" s="56"/>
+      <c r="W25" s="56"/>
+      <c r="X25" s="50"/>
+      <c r="Y25" s="50"/>
+      <c r="Z25" s="51" t="s">
+        <v>285</v>
+      </c>
+      <c r="AA25" s="51"/>
+      <c r="AB25" s="52" t="s">
+        <v>103</v>
+      </c>
+      <c r="AC25" s="52"/>
+      <c r="AD25" s="52"/>
+      <c r="AE25" s="52"/>
+      <c r="AF25" s="52"/>
+      <c r="AG25" s="52"/>
+      <c r="AH25" s="52"/>
+      <c r="AI25" s="52"/>
+      <c r="AJ25" s="52"/>
+      <c r="AK25" s="52"/>
+      <c r="AL25" s="53" t="s">
+        <v>285</v>
+      </c>
+      <c r="AM25" s="53"/>
+      <c r="AN25" s="54" t="s">
+        <v>127</v>
+      </c>
+      <c r="AO25" s="54"/>
+      <c r="AP25" s="54"/>
+      <c r="AQ25" s="54"/>
+      <c r="AR25" s="54"/>
+      <c r="AS25" s="54"/>
+      <c r="AT25" s="54"/>
+      <c r="AU25" s="54"/>
+      <c r="AV25" s="54"/>
+      <c r="AW25" s="54"/>
+      <c r="AX25" s="55" t="s">
+        <v>285</v>
+      </c>
+      <c r="AY25" s="55"/>
+      <c r="AZ25" s="56" t="s">
+        <v>68</v>
+      </c>
+      <c r="BA25" s="56"/>
+      <c r="BB25" s="56"/>
+      <c r="BC25" s="48"/>
+      <c r="BD25" s="48"/>
+      <c r="BE25" s="48"/>
+      <c r="BF25" s="48"/>
+      <c r="BG25" s="48"/>
+      <c r="BH25" s="56"/>
+      <c r="BI25" s="56"/>
+      <c r="BJ25" s="57" t="s">
+        <v>285</v>
+      </c>
+      <c r="BK25" s="57"/>
+      <c r="BL25" s="58" t="s">
+        <v>69</v>
+      </c>
+      <c r="BM25" s="58"/>
+      <c r="BN25" s="58"/>
+      <c r="BO25" s="58"/>
+      <c r="BP25" s="58"/>
+      <c r="BQ25" s="58"/>
+      <c r="BR25" s="58"/>
+      <c r="BS25" s="58"/>
+      <c r="BT25" s="58"/>
+      <c r="BU25" s="58"/>
+      <c r="BV25" s="1"/>
     </row>
-    <row r="26" spans="1:51" ht="61" thickTop="1">
+    <row r="26" spans="1:76" ht="61" thickTop="1">
       <c r="A26" s="33" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B26" s="34" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="C26" s="34"/>
       <c r="D26" s="35" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="E26" s="35"/>
       <c r="F26" s="35"/>
@@ -4322,72 +5128,97 @@
       <c r="L26" s="41"/>
       <c r="M26" s="41"/>
       <c r="N26" s="36" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="O26" s="36"/>
       <c r="P26" s="37" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="Q26" s="37"/>
       <c r="R26" s="37"/>
-      <c r="S26" s="37"/>
-      <c r="T26" s="37"/>
-      <c r="U26" s="38" t="s">
+      <c r="S26" s="43"/>
+      <c r="T26" s="43"/>
+      <c r="U26" s="43"/>
+      <c r="V26" s="43"/>
+      <c r="W26" s="43"/>
+      <c r="X26" s="37"/>
+      <c r="Y26" s="37"/>
+      <c r="Z26" s="38" t="s">
+        <v>290</v>
+      </c>
+      <c r="AA26" s="38"/>
+      <c r="AB26" s="39" t="s">
+        <v>128</v>
+      </c>
+      <c r="AC26" s="39"/>
+      <c r="AD26" s="39"/>
+      <c r="AE26" s="39"/>
+      <c r="AF26" s="39"/>
+      <c r="AG26" s="39"/>
+      <c r="AH26" s="39"/>
+      <c r="AI26" s="39"/>
+      <c r="AJ26" s="39"/>
+      <c r="AK26" s="39"/>
+      <c r="AL26" s="40" t="s">
+        <v>292</v>
+      </c>
+      <c r="AM26" s="40"/>
+      <c r="AN26" s="41" t="s">
+        <v>70</v>
+      </c>
+      <c r="AO26" s="41"/>
+      <c r="AP26" s="41"/>
+      <c r="AQ26" s="41"/>
+      <c r="AR26" s="41"/>
+      <c r="AS26" s="41"/>
+      <c r="AT26" s="41"/>
+      <c r="AU26" s="41"/>
+      <c r="AV26" s="41"/>
+      <c r="AW26" s="41"/>
+      <c r="AX26" s="42" t="s">
+        <v>294</v>
+      </c>
+      <c r="AY26" s="42"/>
+      <c r="AZ26" s="43" t="s">
+        <v>71</v>
+      </c>
+      <c r="BA26" s="43"/>
+      <c r="BB26" s="43"/>
+      <c r="BC26" s="35"/>
+      <c r="BD26" s="35"/>
+      <c r="BE26" s="35"/>
+      <c r="BF26" s="35"/>
+      <c r="BG26" s="35"/>
+      <c r="BH26" s="43"/>
+      <c r="BI26" s="43"/>
+      <c r="BJ26" s="44" t="s">
         <v>296</v>
       </c>
-      <c r="V26" s="38"/>
-      <c r="W26" s="39" t="s">
-        <v>134</v>
-      </c>
-      <c r="X26" s="39"/>
-      <c r="Y26" s="39"/>
-      <c r="Z26" s="39"/>
-      <c r="AA26" s="39"/>
-      <c r="AB26" s="40" t="s">
-        <v>298</v>
-      </c>
-      <c r="AC26" s="40"/>
-      <c r="AD26" s="41" t="s">
-        <v>73</v>
-      </c>
-      <c r="AE26" s="41"/>
-      <c r="AF26" s="41"/>
-      <c r="AG26" s="41"/>
-      <c r="AH26" s="41"/>
-      <c r="AI26" s="42" t="s">
-        <v>300</v>
-      </c>
-      <c r="AJ26" s="42"/>
-      <c r="AK26" s="43" t="s">
-        <v>74</v>
-      </c>
-      <c r="AL26" s="43"/>
-      <c r="AM26" s="43"/>
-      <c r="AN26" s="43"/>
-      <c r="AO26" s="43"/>
-      <c r="AP26" s="44" t="s">
-        <v>302</v>
-      </c>
-      <c r="AQ26" s="44"/>
-      <c r="AR26" s="45" t="s">
-        <v>75</v>
-      </c>
-      <c r="AS26" s="45"/>
-      <c r="AT26" s="45"/>
-      <c r="AU26" s="45"/>
-      <c r="AV26" s="45"/>
-      <c r="AW26" s="1"/>
+      <c r="BK26" s="44"/>
+      <c r="BL26" s="45" t="s">
+        <v>72</v>
+      </c>
+      <c r="BM26" s="45"/>
+      <c r="BN26" s="45"/>
+      <c r="BO26" s="45"/>
+      <c r="BP26" s="45"/>
+      <c r="BQ26" s="45"/>
+      <c r="BR26" s="45"/>
+      <c r="BS26" s="45"/>
+      <c r="BT26" s="45"/>
+      <c r="BU26" s="45"/>
+      <c r="BV26" s="1"/>
     </row>
-    <row r="27" spans="1:51" ht="76" thickBot="1">
+    <row r="27" spans="1:76" ht="76" thickBot="1">
       <c r="A27" s="46" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B27" s="47" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="C27" s="47"/>
       <c r="D27" s="48" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="E27" s="48"/>
       <c r="F27" s="48"/>
@@ -4399,63 +5230,88 @@
       <c r="L27" s="54"/>
       <c r="M27" s="54"/>
       <c r="N27" s="49" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="O27" s="49"/>
       <c r="P27" s="50" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="Q27" s="50"/>
       <c r="R27" s="50"/>
-      <c r="S27" s="50"/>
-      <c r="T27" s="50"/>
-      <c r="U27" s="51" t="s">
+      <c r="S27" s="56"/>
+      <c r="T27" s="56"/>
+      <c r="U27" s="56"/>
+      <c r="V27" s="56"/>
+      <c r="W27" s="56"/>
+      <c r="X27" s="50"/>
+      <c r="Y27" s="50"/>
+      <c r="Z27" s="51" t="s">
+        <v>291</v>
+      </c>
+      <c r="AA27" s="51"/>
+      <c r="AB27" s="52" t="s">
+        <v>108</v>
+      </c>
+      <c r="AC27" s="52"/>
+      <c r="AD27" s="52"/>
+      <c r="AE27" s="52"/>
+      <c r="AF27" s="52"/>
+      <c r="AG27" s="52"/>
+      <c r="AH27" s="52"/>
+      <c r="AI27" s="52"/>
+      <c r="AJ27" s="52"/>
+      <c r="AK27" s="52"/>
+      <c r="AL27" s="53" t="s">
+        <v>293</v>
+      </c>
+      <c r="AM27" s="53"/>
+      <c r="AN27" s="54" t="s">
+        <v>73</v>
+      </c>
+      <c r="AO27" s="54"/>
+      <c r="AP27" s="54"/>
+      <c r="AQ27" s="54"/>
+      <c r="AR27" s="54"/>
+      <c r="AS27" s="54"/>
+      <c r="AT27" s="54"/>
+      <c r="AU27" s="54"/>
+      <c r="AV27" s="54"/>
+      <c r="AW27" s="54"/>
+      <c r="AX27" s="55" t="s">
+        <v>295</v>
+      </c>
+      <c r="AY27" s="55"/>
+      <c r="AZ27" s="56" t="s">
+        <v>74</v>
+      </c>
+      <c r="BA27" s="56"/>
+      <c r="BB27" s="56"/>
+      <c r="BC27" s="48"/>
+      <c r="BD27" s="48"/>
+      <c r="BE27" s="48"/>
+      <c r="BF27" s="48"/>
+      <c r="BG27" s="48"/>
+      <c r="BH27" s="56"/>
+      <c r="BI27" s="56"/>
+      <c r="BJ27" s="57" t="s">
         <v>297</v>
       </c>
-      <c r="V27" s="51"/>
-      <c r="W27" s="52" t="s">
-        <v>114</v>
-      </c>
-      <c r="X27" s="52"/>
-      <c r="Y27" s="52"/>
-      <c r="Z27" s="52"/>
-      <c r="AA27" s="52"/>
-      <c r="AB27" s="53" t="s">
-        <v>299</v>
-      </c>
-      <c r="AC27" s="53"/>
-      <c r="AD27" s="54" t="s">
-        <v>76</v>
-      </c>
-      <c r="AE27" s="54"/>
-      <c r="AF27" s="54"/>
-      <c r="AG27" s="54"/>
-      <c r="AH27" s="54"/>
-      <c r="AI27" s="55" t="s">
-        <v>301</v>
-      </c>
-      <c r="AJ27" s="55"/>
-      <c r="AK27" s="56" t="s">
-        <v>77</v>
-      </c>
-      <c r="AL27" s="56"/>
-      <c r="AM27" s="56"/>
-      <c r="AN27" s="56"/>
-      <c r="AO27" s="56"/>
-      <c r="AP27" s="57" t="s">
-        <v>303</v>
-      </c>
-      <c r="AQ27" s="57"/>
-      <c r="AR27" s="58" t="s">
-        <v>78</v>
-      </c>
-      <c r="AS27" s="58"/>
-      <c r="AT27" s="58"/>
-      <c r="AU27" s="58"/>
-      <c r="AV27" s="58"/>
-      <c r="AW27" s="1"/>
+      <c r="BK27" s="57"/>
+      <c r="BL27" s="58" t="s">
+        <v>75</v>
+      </c>
+      <c r="BM27" s="58"/>
+      <c r="BN27" s="58"/>
+      <c r="BO27" s="58"/>
+      <c r="BP27" s="58"/>
+      <c r="BQ27" s="58"/>
+      <c r="BR27" s="58"/>
+      <c r="BS27" s="58"/>
+      <c r="BT27" s="58"/>
+      <c r="BU27" s="58"/>
+      <c r="BV27" s="1"/>
     </row>
-    <row r="28" spans="1:51" ht="16" thickTop="1"/>
+    <row r="28" spans="1:76" ht="16" thickTop="1"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
